--- a/Capstone Project/Project Deliverables/Draft/OAL-Testcase.xlsx
+++ b/Capstone Project/Project Deliverables/Draft/OAL-Testcase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="908" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Test Report" sheetId="13" r:id="rId1"/>
@@ -19,12 +19,15 @@
     <sheet name="Manage Account Module" sheetId="5" r:id="rId10"/>
     <sheet name="Manage Store Module" sheetId="6" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'View product module'!$A$9:$J$13</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6157" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6157" uniqueCount="1037">
   <si>
     <t>ID</t>
   </si>
@@ -3683,6 +3686,9 @@
   </si>
   <si>
     <t>OtherFunctionsModule</t>
+  </si>
+  <si>
+    <t>='[Template_Defect_log (1).xls]Defects'!$C$10</t>
   </si>
 </sst>
 </file>
@@ -3696,7 +3702,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -3748,7 +3754,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -3803,14 +3809,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3818,7 +3824,7 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3826,7 +3832,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3835,7 +3841,7 @@
       <b/>
       <sz val="12"/>
       <color indexed="9"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3844,7 +3850,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3852,7 +3858,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3861,7 +3867,7 @@
       <i/>
       <sz val="12"/>
       <color indexed="17"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3870,7 +3876,7 @@
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3879,7 +3885,7 @@
       <b/>
       <sz val="12"/>
       <color indexed="60"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3888,7 +3894,7 @@
       <u/>
       <sz val="12"/>
       <color theme="4" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3896,7 +3902,7 @@
     <font>
       <sz val="12"/>
       <color indexed="9"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3905,7 +3911,7 @@
       <b/>
       <sz val="12"/>
       <color indexed="12"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3914,7 +3920,7 @@
       <b/>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3922,7 +3928,7 @@
     <font>
       <b/>
       <sz val="15"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3931,7 +3937,7 @@
       <i/>
       <sz val="15"/>
       <color indexed="17"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3940,7 +3946,7 @@
       <b/>
       <sz val="15"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3948,7 +3954,7 @@
     <font>
       <sz val="15"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3956,7 +3962,7 @@
     <font>
       <sz val="15"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -3964,7 +3970,7 @@
     <font>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -5003,14 +5009,17 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5019,13 +5028,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5049,14 +5055,14 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -17436,15 +17442,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1552576</xdr:colOff>
+      <xdr:colOff>1817620</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>139498</xdr:rowOff>
+      <xdr:rowOff>139500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:colOff>1979544</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>301422</xdr:rowOff>
+      <xdr:rowOff>301424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17467,7 +17473,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9124951" y="32876923"/>
+          <a:off x="8443707" y="48932348"/>
           <a:ext cx="161924" cy="161924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21838,73 +21844,73 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14" style="97" customWidth="1"/>
-    <col min="2" max="2" width="33.125" style="97" customWidth="1"/>
-    <col min="3" max="3" width="43.125" style="97" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="97" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="97" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="97" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="97" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="97" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="97" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="97" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="97" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="97" customWidth="1"/>
     <col min="8" max="9" width="9" style="97"/>
-    <col min="10" max="10" width="13.625" style="97" customWidth="1"/>
-    <col min="11" max="11" width="25.375" style="97" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="97" customWidth="1"/>
-    <col min="13" max="13" width="13.75" style="97" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="97" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" style="97" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="97" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="97" customWidth="1"/>
     <col min="14" max="15" width="9" style="97"/>
     <col min="16" max="16" width="14" style="97" customWidth="1"/>
     <col min="17" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="220" t="s">
         <v>1007</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="J1" s="219" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="J1" s="220" t="s">
         <v>1007</v>
       </c>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="219"/>
-      <c r="P1" s="219"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="220"/>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
+      <c r="A2" s="221"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="221"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="148" t="s">
         <v>495</v>
       </c>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="222" t="s">
         <v>819</v>
       </c>
-      <c r="C3" s="216"/>
-      <c r="D3" s="217" t="s">
+      <c r="C3" s="222"/>
+      <c r="D3" s="216" t="s">
         <v>1008</v>
       </c>
-      <c r="E3" s="217"/>
+      <c r="E3" s="216"/>
       <c r="F3" s="176"/>
       <c r="G3" s="177" t="s">
         <v>19</v>
@@ -21912,14 +21918,14 @@
       <c r="J3" s="148" t="s">
         <v>495</v>
       </c>
-      <c r="K3" s="216" t="s">
+      <c r="K3" s="222" t="s">
         <v>819</v>
       </c>
-      <c r="L3" s="216"/>
-      <c r="M3" s="217" t="s">
+      <c r="L3" s="222"/>
+      <c r="M3" s="216" t="s">
         <v>1008</v>
       </c>
-      <c r="N3" s="217"/>
+      <c r="N3" s="216"/>
       <c r="O3" s="176"/>
       <c r="P3" s="177" t="s">
         <v>19</v>
@@ -21929,14 +21935,14 @@
       <c r="A4" s="148" t="s">
         <v>496</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="222" t="s">
         <v>1028</v>
       </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="217" t="s">
+      <c r="C4" s="222"/>
+      <c r="D4" s="216" t="s">
         <v>1009</v>
       </c>
-      <c r="E4" s="217"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="176"/>
       <c r="G4" s="177" t="s">
         <v>1026</v>
@@ -21944,14 +21950,14 @@
       <c r="J4" s="148" t="s">
         <v>496</v>
       </c>
-      <c r="K4" s="216" t="s">
+      <c r="K4" s="222" t="s">
         <v>1028</v>
       </c>
-      <c r="L4" s="216"/>
-      <c r="M4" s="217" t="s">
+      <c r="L4" s="222"/>
+      <c r="M4" s="216" t="s">
         <v>1009</v>
       </c>
-      <c r="N4" s="217"/>
+      <c r="N4" s="216"/>
       <c r="O4" s="176"/>
       <c r="P4" s="177" t="s">
         <v>1026</v>
@@ -21961,14 +21967,14 @@
       <c r="A5" s="149" t="s">
         <v>1010</v>
       </c>
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="222" t="s">
         <v>1029</v>
       </c>
-      <c r="C5" s="216"/>
-      <c r="D5" s="217" t="s">
+      <c r="C5" s="222"/>
+      <c r="D5" s="216" t="s">
         <v>1011</v>
       </c>
-      <c r="E5" s="217"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="176"/>
       <c r="G5" s="178">
         <v>43305</v>
@@ -21976,14 +21982,14 @@
       <c r="J5" s="149" t="s">
         <v>1010</v>
       </c>
-      <c r="K5" s="216" t="s">
+      <c r="K5" s="222" t="s">
         <v>1029</v>
       </c>
-      <c r="L5" s="216"/>
-      <c r="M5" s="217" t="s">
+      <c r="L5" s="222"/>
+      <c r="M5" s="216" t="s">
         <v>1011</v>
       </c>
-      <c r="N5" s="217"/>
+      <c r="N5" s="216"/>
       <c r="O5" s="176"/>
       <c r="P5" s="178">
         <v>43333</v>
@@ -21993,25 +21999,25 @@
       <c r="A6" s="149" t="s">
         <v>1012</v>
       </c>
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="223" t="s">
         <v>1027</v>
       </c>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
       <c r="J6" s="149" t="s">
         <v>1012</v>
       </c>
-      <c r="K6" s="218" t="s">
+      <c r="K6" s="223" t="s">
         <v>1032</v>
       </c>
-      <c r="L6" s="218"/>
-      <c r="M6" s="218"/>
-      <c r="N6" s="218"/>
-      <c r="O6" s="218"/>
-      <c r="P6" s="218"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="223"/>
+      <c r="P6" s="223"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="150"/>
@@ -22029,7 +22035,7 @@
       <c r="O7" s="146"/>
       <c r="P7" s="147"/>
     </row>
-    <row r="8" spans="1:16" ht="31.5">
+    <row r="8" spans="1:16" ht="47.25">
       <c r="A8" s="153" t="s">
         <v>499</v>
       </c>
@@ -22410,87 +22416,87 @@
       <c r="G19" s="175"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="219" t="s">
+      <c r="A24" s="220" t="s">
         <v>1007</v>
       </c>
-      <c r="B24" s="219"/>
-      <c r="C24" s="219"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="219"/>
+      <c r="B24" s="220"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="220"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="220"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="220"/>
-      <c r="B25" s="220"/>
-      <c r="C25" s="220"/>
-      <c r="D25" s="220"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="220"/>
+      <c r="A25" s="221"/>
+      <c r="B25" s="221"/>
+      <c r="C25" s="221"/>
+      <c r="D25" s="221"/>
+      <c r="E25" s="221"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="221"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="179" t="s">
         <v>495</v>
       </c>
-      <c r="B26" s="221" t="s">
+      <c r="B26" s="218" t="s">
         <v>819</v>
       </c>
-      <c r="C26" s="221"/>
-      <c r="D26" s="222" t="s">
+      <c r="C26" s="218"/>
+      <c r="D26" s="219" t="s">
         <v>1008</v>
       </c>
-      <c r="E26" s="222"/>
+      <c r="E26" s="219"/>
       <c r="F26" s="181"/>
       <c r="G26" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="219" t="s">
+      <c r="J26" s="220" t="s">
         <v>1007</v>
       </c>
-      <c r="K26" s="219"/>
-      <c r="L26" s="219"/>
-      <c r="M26" s="219"/>
-      <c r="N26" s="219"/>
-      <c r="O26" s="219"/>
-      <c r="P26" s="219"/>
+      <c r="K26" s="220"/>
+      <c r="L26" s="220"/>
+      <c r="M26" s="220"/>
+      <c r="N26" s="220"/>
+      <c r="O26" s="220"/>
+      <c r="P26" s="220"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="179" t="s">
         <v>496</v>
       </c>
-      <c r="B27" s="221" t="s">
+      <c r="B27" s="218" t="s">
         <v>1028</v>
       </c>
-      <c r="C27" s="221"/>
-      <c r="D27" s="222" t="s">
+      <c r="C27" s="218"/>
+      <c r="D27" s="219" t="s">
         <v>1009</v>
       </c>
-      <c r="E27" s="222"/>
+      <c r="E27" s="219"/>
       <c r="F27" s="181"/>
       <c r="G27" s="181" t="s">
         <v>1026</v>
       </c>
-      <c r="J27" s="220"/>
-      <c r="K27" s="220"/>
-      <c r="L27" s="220"/>
-      <c r="M27" s="220"/>
-      <c r="N27" s="220"/>
-      <c r="O27" s="220"/>
-      <c r="P27" s="220"/>
+      <c r="J27" s="221"/>
+      <c r="K27" s="221"/>
+      <c r="L27" s="221"/>
+      <c r="M27" s="221"/>
+      <c r="N27" s="221"/>
+      <c r="O27" s="221"/>
+      <c r="P27" s="221"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="179" t="s">
         <v>1010</v>
       </c>
-      <c r="B28" s="221" t="s">
+      <c r="B28" s="218" t="s">
         <v>1030</v>
       </c>
-      <c r="C28" s="221"/>
-      <c r="D28" s="222" t="s">
+      <c r="C28" s="218"/>
+      <c r="D28" s="219" t="s">
         <v>1011</v>
       </c>
-      <c r="E28" s="222"/>
+      <c r="E28" s="219"/>
       <c r="F28" s="181"/>
       <c r="G28" s="182">
         <v>43315</v>
@@ -22498,14 +22504,14 @@
       <c r="J28" s="148" t="s">
         <v>495</v>
       </c>
-      <c r="K28" s="216" t="s">
+      <c r="K28" s="222" t="s">
         <v>819</v>
       </c>
-      <c r="L28" s="216"/>
-      <c r="M28" s="217" t="s">
+      <c r="L28" s="222"/>
+      <c r="M28" s="216" t="s">
         <v>1008</v>
       </c>
-      <c r="N28" s="217"/>
+      <c r="N28" s="216"/>
       <c r="O28" s="176"/>
       <c r="P28" s="177" t="s">
         <v>19</v>
@@ -22515,25 +22521,25 @@
       <c r="A29" s="179" t="s">
         <v>1012</v>
       </c>
-      <c r="B29" s="223" t="s">
+      <c r="B29" s="217" t="s">
         <v>1031</v>
       </c>
-      <c r="C29" s="223"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="217"/>
       <c r="J29" s="148" t="s">
         <v>496</v>
       </c>
-      <c r="K29" s="216" t="s">
+      <c r="K29" s="222" t="s">
         <v>1028</v>
       </c>
-      <c r="L29" s="216"/>
-      <c r="M29" s="217" t="s">
+      <c r="L29" s="222"/>
+      <c r="M29" s="216" t="s">
         <v>1009</v>
       </c>
-      <c r="N29" s="217"/>
+      <c r="N29" s="216"/>
       <c r="O29" s="176"/>
       <c r="P29" s="177" t="s">
         <v>1026</v>
@@ -22550,20 +22556,20 @@
       <c r="J30" s="149" t="s">
         <v>1010</v>
       </c>
-      <c r="K30" s="216" t="s">
+      <c r="K30" s="222" t="s">
         <v>1029</v>
       </c>
-      <c r="L30" s="216"/>
-      <c r="M30" s="217" t="s">
+      <c r="L30" s="222"/>
+      <c r="M30" s="216" t="s">
         <v>1011</v>
       </c>
-      <c r="N30" s="217"/>
+      <c r="N30" s="216"/>
       <c r="O30" s="176"/>
       <c r="P30" s="178">
         <v>43335</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="31.5">
+    <row r="31" spans="1:16" ht="47.25">
       <c r="A31" s="184" t="s">
         <v>499</v>
       </c>
@@ -22588,14 +22594,14 @@
       <c r="J31" s="149" t="s">
         <v>1012</v>
       </c>
-      <c r="K31" s="218" t="s">
+      <c r="K31" s="223" t="s">
         <v>1033</v>
       </c>
-      <c r="L31" s="218"/>
-      <c r="M31" s="218"/>
-      <c r="N31" s="218"/>
-      <c r="O31" s="218"/>
-      <c r="P31" s="218"/>
+      <c r="L31" s="223"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="223"/>
+      <c r="O31" s="223"/>
+      <c r="P31" s="223"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="189">
@@ -22962,17 +22968,11 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="J26:P27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K31:P31"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A24:G25"/>
     <mergeCell ref="J1:P2"/>
@@ -22989,11 +22989,17 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="J26:P27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" location="'View product module'!A1" display="ViewProductModule"/>
@@ -23023,21 +23029,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="106" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="97" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="97" customWidth="1"/>
-    <col min="4" max="4" width="39.75" style="97" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="106" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="97" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="97" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="97" customWidth="1"/>
     <col min="5" max="5" width="42" style="97" customWidth="1"/>
-    <col min="6" max="7" width="34.75" style="97" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="97" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="97" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="97" customWidth="1"/>
+    <col min="6" max="7" width="34.7109375" style="97" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="97" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="97" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="97" customWidth="1"/>
     <col min="11" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
@@ -23061,46 +23067,46 @@
       <c r="F2" s="228"/>
       <c r="G2" s="96"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5">
+    <row r="3" spans="1:10" ht="18.75">
       <c r="A3" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="232" t="s">
         <v>572</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
       <c r="G3" s="99"/>
     </row>
-    <row r="4" spans="1:10" ht="19.5">
+    <row r="4" spans="1:10" ht="37.5">
       <c r="A4" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
       <c r="G4" s="99"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5">
+    <row r="5" spans="1:10" ht="18.75">
       <c r="A5" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="B5" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
       <c r="G5" s="99"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5">
+    <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="203" t="s">
         <v>506</v>
       </c>
@@ -23113,13 +23119,13 @@
       <c r="D6" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="232" t="s">
+      <c r="E6" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="232"/>
+      <c r="F6" s="233"/>
       <c r="G6" s="101"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5">
+    <row r="7" spans="1:10" ht="18.75">
       <c r="A7" s="204">
         <f>COUNTIF(H10:H54,"Passed")</f>
         <v>26</v>
@@ -23134,14 +23140,14 @@
       <c r="D7" s="206">
         <v>0</v>
       </c>
-      <c r="E7" s="233">
+      <c r="E7" s="234">
         <f xml:space="preserve"> A7 +B7</f>
         <v>37</v>
       </c>
-      <c r="F7" s="233"/>
+      <c r="F7" s="234"/>
       <c r="G7" s="105"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="31.5">
       <c r="A9" s="84" t="s">
         <v>0</v>
       </c>
@@ -23173,7 +23179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="63">
+    <row r="10" spans="1:10" ht="94.5">
       <c r="A10" s="68" t="s">
         <v>573</v>
       </c>
@@ -23205,7 +23211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="126">
+    <row r="11" spans="1:10" ht="157.5">
       <c r="A11" s="68" t="s">
         <v>574</v>
       </c>
@@ -23237,7 +23243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="63">
+    <row r="12" spans="1:10" ht="78.75">
       <c r="A12" s="68" t="s">
         <v>575</v>
       </c>
@@ -23269,7 +23275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="63">
+    <row r="13" spans="1:10" ht="78.75">
       <c r="A13" s="68" t="s">
         <v>576</v>
       </c>
@@ -23301,7 +23307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="63">
+    <row r="14" spans="1:10" ht="78.75">
       <c r="A14" s="68" t="s">
         <v>577</v>
       </c>
@@ -23333,7 +23339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="63">
+    <row r="15" spans="1:10" ht="78.75">
       <c r="A15" s="68" t="s">
         <v>578</v>
       </c>
@@ -23365,7 +23371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="63">
+    <row r="16" spans="1:10" ht="78.75">
       <c r="A16" s="68" t="s">
         <v>579</v>
       </c>
@@ -23397,7 +23403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="47.25">
+    <row r="17" spans="1:10" ht="78.75">
       <c r="A17" s="68" t="s">
         <v>580</v>
       </c>
@@ -23429,7 +23435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25">
+    <row r="18" spans="1:10" ht="78.75">
       <c r="A18" s="68" t="s">
         <v>581</v>
       </c>
@@ -23473,7 +23479,7 @@
       <c r="I19" s="95"/>
       <c r="J19" s="94"/>
     </row>
-    <row r="20" spans="1:10" ht="78.75">
+    <row r="20" spans="1:10" ht="94.5">
       <c r="A20" s="68" t="s">
         <v>582</v>
       </c>
@@ -23505,7 +23511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="94.5">
+    <row r="21" spans="1:10" ht="126">
       <c r="A21" s="68" t="s">
         <v>583</v>
       </c>
@@ -23537,7 +23543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="78.75">
+    <row r="22" spans="1:10" ht="94.5">
       <c r="A22" s="68" t="s">
         <v>584</v>
       </c>
@@ -23601,7 +23607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="110.25">
+    <row r="24" spans="1:10" ht="141.75">
       <c r="A24" s="68" t="s">
         <v>586</v>
       </c>
@@ -23633,7 +23639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="94.5">
+    <row r="25" spans="1:10" ht="110.25">
       <c r="A25" s="68" t="s">
         <v>587</v>
       </c>
@@ -23653,7 +23659,7 @@
         <v>39</v>
       </c>
       <c r="G25" s="73" t="s">
-        <v>39</v>
+        <v>631</v>
       </c>
       <c r="H25" s="82" t="s">
         <v>15</v>
@@ -23697,7 +23703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="78.75">
+    <row r="27" spans="1:10" ht="94.5">
       <c r="A27" s="68" t="s">
         <v>589</v>
       </c>
@@ -23729,7 +23735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="78.75">
+    <row r="28" spans="1:10" ht="94.5">
       <c r="A28" s="68" t="s">
         <v>590</v>
       </c>
@@ -23773,7 +23779,7 @@
       <c r="I29" s="95"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="1:10" ht="126">
+    <row r="30" spans="1:10" ht="141.75">
       <c r="A30" s="68" t="s">
         <v>591</v>
       </c>
@@ -23805,7 +23811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="126">
+    <row r="31" spans="1:10" ht="141.75">
       <c r="A31" s="68" t="s">
         <v>592</v>
       </c>
@@ -23837,7 +23843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="189">
+    <row r="32" spans="1:10" ht="220.5">
       <c r="A32" s="68" t="s">
         <v>593</v>
       </c>
@@ -23869,7 +23875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="189">
+    <row r="33" spans="1:10" ht="220.5">
       <c r="A33" s="68" t="s">
         <v>594</v>
       </c>
@@ -23977,7 +23983,7 @@
       <c r="I36" s="95"/>
       <c r="J36" s="94"/>
     </row>
-    <row r="37" spans="1:10" ht="63">
+    <row r="37" spans="1:10" ht="94.5">
       <c r="A37" s="68" t="s">
         <v>597</v>
       </c>
@@ -24009,7 +24015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="110.25">
+    <row r="38" spans="1:10" ht="141.75">
       <c r="A38" s="68" t="s">
         <v>598</v>
       </c>
@@ -24073,7 +24079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="63">
+    <row r="40" spans="1:10" ht="78.75">
       <c r="A40" s="68" t="s">
         <v>600</v>
       </c>
@@ -24105,7 +24111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="94.5">
+    <row r="41" spans="1:10" ht="110.25">
       <c r="A41" s="68" t="s">
         <v>601</v>
       </c>
@@ -24137,7 +24143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="94.5">
+    <row r="42" spans="1:10" ht="110.25">
       <c r="A42" s="68" t="s">
         <v>602</v>
       </c>
@@ -24201,7 +24207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="78.75">
+    <row r="44" spans="1:10" ht="94.5">
       <c r="A44" s="68" t="s">
         <v>604</v>
       </c>
@@ -24265,7 +24271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="94.5">
+    <row r="46" spans="1:10" ht="110.25">
       <c r="A46" s="68" t="s">
         <v>648</v>
       </c>
@@ -24309,7 +24315,7 @@
       <c r="I47" s="95"/>
       <c r="J47" s="94"/>
     </row>
-    <row r="48" spans="1:10" ht="110.25">
+    <row r="48" spans="1:10" ht="126">
       <c r="A48" s="68" t="s">
         <v>746</v>
       </c>
@@ -24341,7 +24347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="110.25">
+    <row r="49" spans="1:10" ht="141.75">
       <c r="A49" s="68" t="s">
         <v>747</v>
       </c>
@@ -24373,7 +24379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="94.5">
+    <row r="50" spans="1:10" ht="110.25">
       <c r="A50" s="68" t="s">
         <v>749</v>
       </c>
@@ -24425,46 +24431,46 @@
       <c r="F56" s="228"/>
       <c r="G56" s="96"/>
     </row>
-    <row r="57" spans="1:10" ht="19.5">
+    <row r="57" spans="1:10" ht="18.75">
       <c r="A57" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="234" t="s">
+      <c r="B57" s="232" t="s">
         <v>572</v>
       </c>
-      <c r="C57" s="234"/>
-      <c r="D57" s="234"/>
-      <c r="E57" s="234"/>
-      <c r="F57" s="234"/>
+      <c r="C57" s="232"/>
+      <c r="D57" s="232"/>
+      <c r="E57" s="232"/>
+      <c r="F57" s="232"/>
       <c r="G57" s="99"/>
     </row>
-    <row r="58" spans="1:10" ht="19.5">
+    <row r="58" spans="1:10" ht="37.5">
       <c r="A58" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="234" t="s">
+      <c r="B58" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C58" s="234"/>
-      <c r="D58" s="234"/>
-      <c r="E58" s="234"/>
-      <c r="F58" s="234"/>
+      <c r="C58" s="232"/>
+      <c r="D58" s="232"/>
+      <c r="E58" s="232"/>
+      <c r="F58" s="232"/>
       <c r="G58" s="99"/>
     </row>
-    <row r="59" spans="1:10" ht="19.5">
+    <row r="59" spans="1:10" ht="18.75">
       <c r="A59" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="234"/>
-      <c r="D59" s="234"/>
-      <c r="E59" s="234"/>
-      <c r="F59" s="234"/>
+      <c r="B59" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="232"/>
+      <c r="D59" s="232"/>
+      <c r="E59" s="232"/>
+      <c r="F59" s="232"/>
       <c r="G59" s="99"/>
     </row>
-    <row r="60" spans="1:10" ht="19.5">
+    <row r="60" spans="1:10" ht="18.75">
       <c r="A60" s="203" t="s">
         <v>506</v>
       </c>
@@ -24477,13 +24483,13 @@
       <c r="D60" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="232" t="s">
+      <c r="E60" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="232"/>
+      <c r="F60" s="233"/>
       <c r="G60" s="101"/>
     </row>
-    <row r="61" spans="1:10" ht="19.5">
+    <row r="61" spans="1:10" ht="18.75">
       <c r="A61" s="204">
         <f>COUNTIF(H64:H108,"Passed")</f>
         <v>37</v>
@@ -24496,14 +24502,14 @@
       <c r="D61" s="206">
         <v>0</v>
       </c>
-      <c r="E61" s="233">
+      <c r="E61" s="234">
         <f xml:space="preserve"> A61 +B61</f>
         <v>37</v>
       </c>
-      <c r="F61" s="233"/>
+      <c r="F61" s="234"/>
       <c r="G61" s="105"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" ht="31.5">
       <c r="A63" s="84" t="s">
         <v>0</v>
       </c>
@@ -24535,7 +24541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="63">
+    <row r="64" spans="1:10" ht="94.5">
       <c r="A64" s="68" t="s">
         <v>573</v>
       </c>
@@ -24567,7 +24573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="126">
+    <row r="65" spans="1:10" ht="157.5">
       <c r="A65" s="68" t="s">
         <v>574</v>
       </c>
@@ -24663,7 +24669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="63">
+    <row r="68" spans="1:10" ht="78.75">
       <c r="A68" s="68" t="s">
         <v>577</v>
       </c>
@@ -24695,7 +24701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="63">
+    <row r="69" spans="1:10" ht="78.75">
       <c r="A69" s="68" t="s">
         <v>578</v>
       </c>
@@ -24727,7 +24733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="63">
+    <row r="70" spans="1:10" ht="78.75">
       <c r="A70" s="68" t="s">
         <v>579</v>
       </c>
@@ -24759,7 +24765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="47.25">
+    <row r="71" spans="1:10" ht="78.75">
       <c r="A71" s="68" t="s">
         <v>580</v>
       </c>
@@ -24791,7 +24797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="47.25">
+    <row r="72" spans="1:10" ht="78.75">
       <c r="A72" s="68" t="s">
         <v>581</v>
       </c>
@@ -24835,7 +24841,7 @@
       <c r="I73" s="95"/>
       <c r="J73" s="94"/>
     </row>
-    <row r="74" spans="1:10" ht="78.75">
+    <row r="74" spans="1:10" ht="94.5">
       <c r="A74" s="68" t="s">
         <v>582</v>
       </c>
@@ -24867,7 +24873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="94.5">
+    <row r="75" spans="1:10" ht="126">
       <c r="A75" s="68" t="s">
         <v>583</v>
       </c>
@@ -24963,7 +24969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="110.25">
+    <row r="78" spans="1:10" ht="141.75">
       <c r="A78" s="68" t="s">
         <v>586</v>
       </c>
@@ -24995,7 +25001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="94.5">
+    <row r="79" spans="1:10" ht="110.25">
       <c r="A79" s="68" t="s">
         <v>587</v>
       </c>
@@ -25059,7 +25065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="78.75">
+    <row r="81" spans="1:10" ht="94.5">
       <c r="A81" s="68" t="s">
         <v>589</v>
       </c>
@@ -25091,7 +25097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="78.75">
+    <row r="82" spans="1:10" ht="94.5">
       <c r="A82" s="68" t="s">
         <v>590</v>
       </c>
@@ -25135,7 +25141,7 @@
       <c r="I83" s="95"/>
       <c r="J83" s="94"/>
     </row>
-    <row r="84" spans="1:10" ht="126">
+    <row r="84" spans="1:10" ht="141.75">
       <c r="A84" s="68" t="s">
         <v>591</v>
       </c>
@@ -25167,7 +25173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="126">
+    <row r="85" spans="1:10" ht="141.75">
       <c r="A85" s="68" t="s">
         <v>592</v>
       </c>
@@ -25199,7 +25205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="189">
+    <row r="86" spans="1:10" ht="220.5">
       <c r="A86" s="68" t="s">
         <v>593</v>
       </c>
@@ -25231,7 +25237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="189">
+    <row r="87" spans="1:10" ht="220.5">
       <c r="A87" s="68" t="s">
         <v>594</v>
       </c>
@@ -25263,7 +25269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="63">
+    <row r="88" spans="1:10" ht="78.75">
       <c r="A88" s="68" t="s">
         <v>595</v>
       </c>
@@ -25295,7 +25301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="78.75">
+    <row r="89" spans="1:10" ht="94.5">
       <c r="A89" s="68" t="s">
         <v>596</v>
       </c>
@@ -25339,7 +25345,7 @@
       <c r="I90" s="95"/>
       <c r="J90" s="94"/>
     </row>
-    <row r="91" spans="1:10" ht="63">
+    <row r="91" spans="1:10" ht="78.75">
       <c r="A91" s="68" t="s">
         <v>597</v>
       </c>
@@ -25371,7 +25377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="110.25">
+    <row r="92" spans="1:10" ht="141.75">
       <c r="A92" s="68" t="s">
         <v>598</v>
       </c>
@@ -25435,7 +25441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="63">
+    <row r="94" spans="1:10" ht="78.75">
       <c r="A94" s="68" t="s">
         <v>600</v>
       </c>
@@ -25467,7 +25473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="94.5">
+    <row r="95" spans="1:10" ht="110.25">
       <c r="A95" s="68" t="s">
         <v>601</v>
       </c>
@@ -25499,7 +25505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="94.5">
+    <row r="96" spans="1:10" ht="110.25">
       <c r="A96" s="68" t="s">
         <v>602</v>
       </c>
@@ -25671,7 +25677,7 @@
       <c r="I101" s="95"/>
       <c r="J101" s="94"/>
     </row>
-    <row r="102" spans="1:10" ht="110.25">
+    <row r="102" spans="1:10" ht="126">
       <c r="A102" s="68" t="s">
         <v>746</v>
       </c>
@@ -25703,7 +25709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="110.25">
+    <row r="103" spans="1:10" ht="141.75">
       <c r="A103" s="68" t="s">
         <v>747</v>
       </c>
@@ -25735,7 +25741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="94.5">
+    <row r="104" spans="1:10" ht="110.25">
       <c r="A104" s="68" t="s">
         <v>749</v>
       </c>
@@ -25769,18 +25775,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="A55:F56"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B58:F58"/>
     <mergeCell ref="B59:F59"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="H9">
     <cfRule type="containsText" dxfId="315" priority="217" operator="containsText" text="Pass">
@@ -26371,22 +26377,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:F64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="97" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="97" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="97" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="97" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="97" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="97" customWidth="1"/>
     <col min="4" max="4" width="46" style="97" customWidth="1"/>
     <col min="5" max="5" width="42" style="97" customWidth="1"/>
-    <col min="6" max="6" width="35.125" style="97" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="97" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="97" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="97" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="97" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="97" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="97" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="97" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="97" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="97" customWidth="1"/>
     <col min="11" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
@@ -26410,46 +26416,46 @@
       <c r="F2" s="228"/>
       <c r="G2" s="96"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5">
+    <row r="3" spans="1:10" ht="18.75">
       <c r="A3" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="232" t="s">
         <v>612</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
       <c r="G3" s="99"/>
     </row>
-    <row r="4" spans="1:10" ht="19.5">
+    <row r="4" spans="1:10" ht="37.5">
       <c r="A4" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
       <c r="G4" s="99"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5">
+    <row r="5" spans="1:10" ht="18.75">
       <c r="A5" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="B5" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
       <c r="G5" s="99"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5">
+    <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="203" t="s">
         <v>506</v>
       </c>
@@ -26462,13 +26468,13 @@
       <c r="D6" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="232" t="s">
+      <c r="E6" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="232"/>
+      <c r="F6" s="233"/>
       <c r="G6" s="101"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5">
+    <row r="7" spans="1:10" ht="18.75">
       <c r="A7" s="204">
         <f>COUNTIF(H10:H56,"Passed")</f>
         <v>33</v>
@@ -26483,11 +26489,11 @@
       <c r="D7" s="206">
         <v>0</v>
       </c>
-      <c r="E7" s="233">
+      <c r="E7" s="234">
         <f xml:space="preserve"> A7 +B7</f>
         <v>42</v>
       </c>
-      <c r="F7" s="233"/>
+      <c r="F7" s="234"/>
       <c r="G7" s="105"/>
     </row>
     <row r="8" spans="1:10">
@@ -26525,7 +26531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="110.25">
+    <row r="10" spans="1:10" ht="141.75">
       <c r="A10" s="68" t="s">
         <v>750</v>
       </c>
@@ -26557,7 +26563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="110.25">
+    <row r="11" spans="1:10" ht="141.75">
       <c r="A11" s="68" t="s">
         <v>751</v>
       </c>
@@ -26589,7 +26595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="110.25">
+    <row r="12" spans="1:10" ht="157.5">
       <c r="A12" s="68" t="s">
         <v>752</v>
       </c>
@@ -26621,7 +26627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="94.5">
+    <row r="13" spans="1:10" ht="126">
       <c r="A13" s="68" t="s">
         <v>753</v>
       </c>
@@ -26653,7 +26659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="110.25">
+    <row r="14" spans="1:10" ht="126">
       <c r="A14" s="68" t="s">
         <v>754</v>
       </c>
@@ -26685,7 +26691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="110.25">
+    <row r="15" spans="1:10" ht="126">
       <c r="A15" s="68" t="s">
         <v>755</v>
       </c>
@@ -26717,7 +26723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="110.25">
+    <row r="16" spans="1:10" ht="126">
       <c r="A16" s="68" t="s">
         <v>756</v>
       </c>
@@ -26749,7 +26755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="78.75">
+    <row r="17" spans="1:10" ht="126">
       <c r="A17" s="68" t="s">
         <v>757</v>
       </c>
@@ -26781,7 +26787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="78.75">
+    <row r="18" spans="1:10" ht="126">
       <c r="A18" s="68" t="s">
         <v>758</v>
       </c>
@@ -26813,7 +26819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="78.75">
+    <row r="19" spans="1:10" ht="126">
       <c r="A19" s="68" t="s">
         <v>759</v>
       </c>
@@ -26845,7 +26851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="94.5">
+    <row r="20" spans="1:10" ht="126">
       <c r="A20" s="68" t="s">
         <v>760</v>
       </c>
@@ -26877,7 +26883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="94.5">
+    <row r="21" spans="1:10" ht="126">
       <c r="A21" s="68" t="s">
         <v>761</v>
       </c>
@@ -26909,7 +26915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="94.5">
+    <row r="22" spans="1:10" ht="126">
       <c r="A22" s="68" t="s">
         <v>762</v>
       </c>
@@ -26941,7 +26947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="94.5">
+    <row r="23" spans="1:10" ht="126">
       <c r="A23" s="68" t="s">
         <v>763</v>
       </c>
@@ -26985,7 +26991,7 @@
       <c r="I24" s="125"/>
       <c r="J24" s="125"/>
     </row>
-    <row r="25" spans="1:10" ht="78.75">
+    <row r="25" spans="1:10" ht="94.5">
       <c r="A25" s="68" t="s">
         <v>769</v>
       </c>
@@ -27017,7 +27023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="126">
+    <row r="26" spans="1:10" ht="157.5">
       <c r="A26" s="68" t="s">
         <v>770</v>
       </c>
@@ -27049,7 +27055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="78.75">
+    <row r="27" spans="1:10" ht="110.25">
       <c r="A27" s="68" t="s">
         <v>771</v>
       </c>
@@ -27081,7 +27087,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="126">
+    <row r="28" spans="1:10" ht="157.5">
       <c r="A28" s="68" t="s">
         <v>772</v>
       </c>
@@ -27113,7 +27119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="78.75">
+    <row r="29" spans="1:10" ht="110.25">
       <c r="A29" s="68" t="s">
         <v>773</v>
       </c>
@@ -27145,7 +27151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="126">
+    <row r="30" spans="1:10" ht="157.5">
       <c r="A30" s="68" t="s">
         <v>774</v>
       </c>
@@ -27177,7 +27183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="31.5">
+    <row r="31" spans="1:10" ht="47.25">
       <c r="A31" s="68" t="s">
         <v>776</v>
       </c>
@@ -27209,7 +27215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="126">
+    <row r="32" spans="1:10" ht="157.5">
       <c r="A32" s="68" t="s">
         <v>775</v>
       </c>
@@ -27253,7 +27259,7 @@
       <c r="I33" s="137"/>
       <c r="J33" s="136"/>
     </row>
-    <row r="34" spans="1:10" ht="63">
+    <row r="34" spans="1:10" ht="94.5">
       <c r="A34" s="68" t="s">
         <v>777</v>
       </c>
@@ -27285,7 +27291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="63">
+    <row r="35" spans="1:10" ht="94.5">
       <c r="A35" s="68" t="s">
         <v>778</v>
       </c>
@@ -27317,7 +27323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="47.25">
+    <row r="36" spans="1:10" ht="63">
       <c r="A36" s="68" t="s">
         <v>779</v>
       </c>
@@ -27349,7 +27355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="47.25">
+    <row r="37" spans="1:10" ht="63">
       <c r="A37" s="68" t="s">
         <v>780</v>
       </c>
@@ -27381,7 +27387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="63">
+    <row r="38" spans="1:10" ht="94.5">
       <c r="A38" s="68" t="s">
         <v>781</v>
       </c>
@@ -27425,7 +27431,7 @@
       <c r="I39" s="137"/>
       <c r="J39" s="136"/>
     </row>
-    <row r="40" spans="1:10" ht="126">
+    <row r="40" spans="1:10" ht="189">
       <c r="A40" s="68" t="s">
         <v>782</v>
       </c>
@@ -27457,7 +27463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="126">
+    <row r="41" spans="1:10" ht="189">
       <c r="A41" s="68" t="s">
         <v>783</v>
       </c>
@@ -27489,7 +27495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="126">
+    <row r="42" spans="1:10" ht="189">
       <c r="A42" s="68" t="s">
         <v>784</v>
       </c>
@@ -27521,7 +27527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="126">
+    <row r="43" spans="1:10" ht="189">
       <c r="A43" s="68" t="s">
         <v>785</v>
       </c>
@@ -27553,7 +27559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="126">
+    <row r="44" spans="1:10" ht="189">
       <c r="A44" s="68" t="s">
         <v>787</v>
       </c>
@@ -27585,7 +27591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="126">
+    <row r="45" spans="1:10" ht="157.5">
       <c r="A45" s="68" t="s">
         <v>788</v>
       </c>
@@ -27617,7 +27623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="126">
+    <row r="46" spans="1:10" ht="157.5">
       <c r="A46" s="68" t="s">
         <v>789</v>
       </c>
@@ -27649,7 +27655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="126">
+    <row r="47" spans="1:10" ht="157.5">
       <c r="A47" s="68" t="s">
         <v>790</v>
       </c>
@@ -27681,7 +27687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="94.5">
+    <row r="48" spans="1:10" ht="141.75">
       <c r="A48" s="68" t="s">
         <v>791</v>
       </c>
@@ -27713,7 +27719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="63">
+    <row r="49" spans="1:10" ht="110.25">
       <c r="A49" s="68" t="s">
         <v>792</v>
       </c>
@@ -27745,7 +27751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="78.75">
+    <row r="50" spans="1:10" ht="110.25">
       <c r="A50" s="68" t="s">
         <v>793</v>
       </c>
@@ -27777,7 +27783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="63">
+    <row r="51" spans="1:10" ht="110.25">
       <c r="A51" s="68" t="s">
         <v>794</v>
       </c>
@@ -27853,7 +27859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="94.5">
+    <row r="54" spans="1:10" ht="126">
       <c r="A54" s="68" t="s">
         <v>808</v>
       </c>
@@ -27885,7 +27891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="63">
+    <row r="55" spans="1:10" ht="94.5">
       <c r="A55" s="68" t="s">
         <v>809</v>
       </c>
@@ -27937,46 +27943,46 @@
       <c r="F61" s="228"/>
       <c r="G61" s="96"/>
     </row>
-    <row r="62" spans="1:10" ht="19.5">
+    <row r="62" spans="1:10" ht="18.75">
       <c r="A62" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="234" t="s">
+      <c r="B62" s="232" t="s">
         <v>612</v>
       </c>
-      <c r="C62" s="234"/>
-      <c r="D62" s="234"/>
-      <c r="E62" s="234"/>
-      <c r="F62" s="234"/>
+      <c r="C62" s="232"/>
+      <c r="D62" s="232"/>
+      <c r="E62" s="232"/>
+      <c r="F62" s="232"/>
       <c r="G62" s="99"/>
     </row>
-    <row r="63" spans="1:10" ht="19.5">
+    <row r="63" spans="1:10" ht="37.5">
       <c r="A63" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="234" t="s">
+      <c r="B63" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C63" s="234"/>
-      <c r="D63" s="234"/>
-      <c r="E63" s="234"/>
-      <c r="F63" s="234"/>
+      <c r="C63" s="232"/>
+      <c r="D63" s="232"/>
+      <c r="E63" s="232"/>
+      <c r="F63" s="232"/>
       <c r="G63" s="99"/>
     </row>
-    <row r="64" spans="1:10" ht="19.5">
+    <row r="64" spans="1:10" ht="18.75">
       <c r="A64" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="234"/>
-      <c r="D64" s="234"/>
-      <c r="E64" s="234"/>
-      <c r="F64" s="234"/>
+      <c r="B64" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="232"/>
+      <c r="D64" s="232"/>
+      <c r="E64" s="232"/>
+      <c r="F64" s="232"/>
       <c r="G64" s="99"/>
     </row>
-    <row r="65" spans="1:10" ht="19.5">
+    <row r="65" spans="1:10" ht="18.75">
       <c r="A65" s="203" t="s">
         <v>506</v>
       </c>
@@ -27989,13 +27995,13 @@
       <c r="D65" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="232" t="s">
+      <c r="E65" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="232"/>
+      <c r="F65" s="233"/>
       <c r="G65" s="101"/>
     </row>
-    <row r="66" spans="1:10" ht="19.5">
+    <row r="66" spans="1:10" ht="18.75">
       <c r="A66" s="204">
         <f>COUNTIF(H69:H115,"Passed")</f>
         <v>42</v>
@@ -28010,11 +28016,11 @@
       <c r="D66" s="206">
         <v>0</v>
       </c>
-      <c r="E66" s="233">
+      <c r="E66" s="234">
         <f xml:space="preserve"> A66 +B66</f>
         <v>42</v>
       </c>
-      <c r="F66" s="233"/>
+      <c r="F66" s="234"/>
       <c r="G66" s="105"/>
     </row>
     <row r="67" spans="1:10">
@@ -28052,7 +28058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="110.25">
+    <row r="69" spans="1:10" ht="141.75">
       <c r="A69" s="68" t="s">
         <v>750</v>
       </c>
@@ -28084,7 +28090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="110.25">
+    <row r="70" spans="1:10" ht="141.75">
       <c r="A70" s="68" t="s">
         <v>751</v>
       </c>
@@ -28116,7 +28122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="110.25">
+    <row r="71" spans="1:10" ht="157.5">
       <c r="A71" s="68" t="s">
         <v>752</v>
       </c>
@@ -28148,7 +28154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="94.5">
+    <row r="72" spans="1:10" ht="126">
       <c r="A72" s="68" t="s">
         <v>753</v>
       </c>
@@ -28180,7 +28186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="110.25">
+    <row r="73" spans="1:10" ht="126">
       <c r="A73" s="68" t="s">
         <v>754</v>
       </c>
@@ -28212,7 +28218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="110.25">
+    <row r="74" spans="1:10" ht="126">
       <c r="A74" s="68" t="s">
         <v>755</v>
       </c>
@@ -28244,7 +28250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="110.25">
+    <row r="75" spans="1:10" ht="126">
       <c r="A75" s="68" t="s">
         <v>756</v>
       </c>
@@ -28276,7 +28282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="78.75">
+    <row r="76" spans="1:10" ht="126">
       <c r="A76" s="68" t="s">
         <v>757</v>
       </c>
@@ -28308,7 +28314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="78.75">
+    <row r="77" spans="1:10" ht="126">
       <c r="A77" s="68" t="s">
         <v>758</v>
       </c>
@@ -28340,7 +28346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="78.75">
+    <row r="78" spans="1:10" ht="126">
       <c r="A78" s="68" t="s">
         <v>759</v>
       </c>
@@ -28372,7 +28378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="94.5">
+    <row r="79" spans="1:10" ht="126">
       <c r="A79" s="68" t="s">
         <v>760</v>
       </c>
@@ -28404,7 +28410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="94.5">
+    <row r="80" spans="1:10" ht="126">
       <c r="A80" s="68" t="s">
         <v>761</v>
       </c>
@@ -28436,7 +28442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="94.5">
+    <row r="81" spans="1:10" ht="126">
       <c r="A81" s="68" t="s">
         <v>762</v>
       </c>
@@ -28468,7 +28474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="94.5">
+    <row r="82" spans="1:10" ht="126">
       <c r="A82" s="68" t="s">
         <v>763</v>
       </c>
@@ -28512,7 +28518,7 @@
       <c r="I83" s="125"/>
       <c r="J83" s="125"/>
     </row>
-    <row r="84" spans="1:10" ht="78.75">
+    <row r="84" spans="1:10" ht="94.5">
       <c r="A84" s="68" t="s">
         <v>769</v>
       </c>
@@ -28544,7 +28550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="126">
+    <row r="85" spans="1:10" ht="157.5">
       <c r="A85" s="68" t="s">
         <v>770</v>
       </c>
@@ -28576,7 +28582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="78.75">
+    <row r="86" spans="1:10" ht="110.25">
       <c r="A86" s="68" t="s">
         <v>771</v>
       </c>
@@ -28608,7 +28614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="126">
+    <row r="87" spans="1:10" ht="157.5">
       <c r="A87" s="68" t="s">
         <v>772</v>
       </c>
@@ -28640,7 +28646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="78.75">
+    <row r="88" spans="1:10" ht="110.25">
       <c r="A88" s="68" t="s">
         <v>773</v>
       </c>
@@ -28672,7 +28678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="126">
+    <row r="89" spans="1:10" ht="157.5">
       <c r="A89" s="68" t="s">
         <v>774</v>
       </c>
@@ -28704,7 +28710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="31.5">
+    <row r="90" spans="1:10" ht="47.25">
       <c r="A90" s="68" t="s">
         <v>776</v>
       </c>
@@ -28736,7 +28742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="126">
+    <row r="91" spans="1:10" ht="157.5">
       <c r="A91" s="68" t="s">
         <v>775</v>
       </c>
@@ -28780,7 +28786,7 @@
       <c r="I92" s="137"/>
       <c r="J92" s="136"/>
     </row>
-    <row r="93" spans="1:10" ht="63">
+    <row r="93" spans="1:10" ht="94.5">
       <c r="A93" s="68" t="s">
         <v>777</v>
       </c>
@@ -28812,7 +28818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="63">
+    <row r="94" spans="1:10" ht="94.5">
       <c r="A94" s="68" t="s">
         <v>778</v>
       </c>
@@ -28844,7 +28850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="47.25">
+    <row r="95" spans="1:10" ht="63">
       <c r="A95" s="68" t="s">
         <v>779</v>
       </c>
@@ -28876,7 +28882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="47.25">
+    <row r="96" spans="1:10" ht="63">
       <c r="A96" s="68" t="s">
         <v>780</v>
       </c>
@@ -28908,7 +28914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="63">
+    <row r="97" spans="1:10" ht="94.5">
       <c r="A97" s="68" t="s">
         <v>781</v>
       </c>
@@ -28952,7 +28958,7 @@
       <c r="I98" s="137"/>
       <c r="J98" s="136"/>
     </row>
-    <row r="99" spans="1:10" ht="126">
+    <row r="99" spans="1:10" ht="189">
       <c r="A99" s="68" t="s">
         <v>782</v>
       </c>
@@ -28984,7 +28990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="126">
+    <row r="100" spans="1:10" ht="189">
       <c r="A100" s="68" t="s">
         <v>783</v>
       </c>
@@ -29016,7 +29022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="126">
+    <row r="101" spans="1:10" ht="189">
       <c r="A101" s="68" t="s">
         <v>784</v>
       </c>
@@ -29048,7 +29054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="126">
+    <row r="102" spans="1:10" ht="189">
       <c r="A102" s="68" t="s">
         <v>785</v>
       </c>
@@ -29080,7 +29086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="126">
+    <row r="103" spans="1:10" ht="189">
       <c r="A103" s="68" t="s">
         <v>787</v>
       </c>
@@ -29112,7 +29118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="126">
+    <row r="104" spans="1:10" ht="157.5">
       <c r="A104" s="68" t="s">
         <v>788</v>
       </c>
@@ -29144,7 +29150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="126">
+    <row r="105" spans="1:10" ht="157.5">
       <c r="A105" s="68" t="s">
         <v>789</v>
       </c>
@@ -29176,7 +29182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="126">
+    <row r="106" spans="1:10" ht="157.5">
       <c r="A106" s="68" t="s">
         <v>790</v>
       </c>
@@ -29208,7 +29214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="94.5">
+    <row r="107" spans="1:10" ht="141.75">
       <c r="A107" s="68" t="s">
         <v>791</v>
       </c>
@@ -29240,7 +29246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="63">
+    <row r="108" spans="1:10" ht="110.25">
       <c r="A108" s="68" t="s">
         <v>792</v>
       </c>
@@ -29272,7 +29278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="78.75">
+    <row r="109" spans="1:10" ht="110.25">
       <c r="A109" s="68" t="s">
         <v>793</v>
       </c>
@@ -29304,7 +29310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="63">
+    <row r="110" spans="1:10" ht="110.25">
       <c r="A110" s="68" t="s">
         <v>794</v>
       </c>
@@ -29348,7 +29354,7 @@
       <c r="I111" s="125"/>
       <c r="J111" s="125"/>
     </row>
-    <row r="112" spans="1:10" ht="63">
+    <row r="112" spans="1:10" ht="94.5">
       <c r="A112" s="68" t="s">
         <v>796</v>
       </c>
@@ -29380,7 +29386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="94.5">
+    <row r="113" spans="1:10" ht="126">
       <c r="A113" s="68" t="s">
         <v>808</v>
       </c>
@@ -29412,7 +29418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="63">
+    <row r="114" spans="1:10" ht="94.5">
       <c r="A114" s="68" t="s">
         <v>809</v>
       </c>
@@ -30165,12 +30171,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="3" width="32.125" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5">
@@ -30253,7 +30259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5">
       <c r="A9" s="45">
         <v>1</v>
       </c>
@@ -30268,7 +30274,7 @@
       </c>
       <c r="E9" s="49"/>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5">
       <c r="A10" s="45">
         <v>2</v>
       </c>
@@ -30283,7 +30289,7 @@
       </c>
       <c r="E10" s="49"/>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5">
       <c r="A11" s="45">
         <v>3</v>
       </c>
@@ -30298,7 +30304,7 @@
       </c>
       <c r="E11" s="49"/>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5">
       <c r="A12" s="45">
         <v>4</v>
       </c>
@@ -30328,7 +30334,7 @@
       </c>
       <c r="E13" s="49"/>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:5">
       <c r="A14" s="45">
         <v>6</v>
       </c>
@@ -30343,7 +30349,7 @@
       </c>
       <c r="E14" s="49"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5">
       <c r="A15" s="45">
         <v>7</v>
       </c>
@@ -30358,7 +30364,7 @@
       </c>
       <c r="E15" s="49"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5">
       <c r="A16" s="45">
         <v>8</v>
       </c>
@@ -30371,7 +30377,7 @@
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
     </row>
-    <row r="17" spans="1:5" ht="15">
+    <row r="17" spans="1:5">
       <c r="A17" s="45">
         <v>9</v>
       </c>
@@ -30412,20 +30418,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="97" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="97" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="97" customWidth="1"/>
-    <col min="4" max="4" width="40.875" style="97" customWidth="1"/>
-    <col min="5" max="5" width="35.25" style="97" customWidth="1"/>
-    <col min="6" max="6" width="34.125" style="97" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="97" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="97" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="97" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="97" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="97" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" style="97" customWidth="1"/>
     <col min="7" max="7" width="9" style="97"/>
-    <col min="8" max="8" width="10.625" style="97" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="97" customWidth="1"/>
     <col min="9" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
@@ -30471,7 +30477,7 @@
       <c r="E4" s="231"/>
       <c r="F4" s="99"/>
     </row>
-    <row r="5" spans="1:9" ht="19.5">
+    <row r="5" spans="1:9" ht="18.75">
       <c r="A5" s="202" t="s">
         <v>14</v>
       </c>
@@ -30483,7 +30489,7 @@
       <c r="E5" s="213"/>
       <c r="F5" s="99"/>
     </row>
-    <row r="6" spans="1:9" ht="19.5">
+    <row r="6" spans="1:9" ht="18.75">
       <c r="A6" s="203" t="s">
         <v>506</v>
       </c>
@@ -30501,7 +30507,7 @@
       </c>
       <c r="F6" s="101"/>
     </row>
-    <row r="7" spans="1:9" ht="19.5">
+    <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="204">
         <f>COUNTIF(G10:G22,"Passed")</f>
         <v>13</v>
@@ -30555,7 +30561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="47.25">
+    <row r="10" spans="1:9" ht="63">
       <c r="A10" s="140" t="s">
         <v>981</v>
       </c>
@@ -30582,7 +30588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="47.25">
+    <row r="11" spans="1:9" ht="63">
       <c r="A11" s="140" t="s">
         <v>986</v>
       </c>
@@ -30609,7 +30615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="47.25">
+    <row r="12" spans="1:9" ht="63">
       <c r="A12" s="140" t="s">
         <v>987</v>
       </c>
@@ -30636,7 +30642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="47.25">
+    <row r="13" spans="1:9" ht="63">
       <c r="A13" s="140" t="s">
         <v>988</v>
       </c>
@@ -30663,7 +30669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="47.25">
+    <row r="14" spans="1:9" ht="63">
       <c r="A14" s="140" t="s">
         <v>989</v>
       </c>
@@ -30690,7 +30696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="63">
+    <row r="15" spans="1:9" ht="94.5">
       <c r="A15" s="140" t="s">
         <v>995</v>
       </c>
@@ -30708,7 +30714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63">
+    <row r="16" spans="1:9" ht="94.5">
       <c r="A16" s="140" t="s">
         <v>996</v>
       </c>
@@ -30725,7 +30731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="63">
+    <row r="17" spans="1:9" ht="94.5">
       <c r="A17" s="140" t="s">
         <v>997</v>
       </c>
@@ -30742,7 +30748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63">
+    <row r="18" spans="1:9" ht="94.5">
       <c r="A18" s="140" t="s">
         <v>998</v>
       </c>
@@ -30759,7 +30765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63">
+    <row r="19" spans="1:9" ht="94.5">
       <c r="A19" s="140" t="s">
         <v>999</v>
       </c>
@@ -30776,7 +30782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="63">
+    <row r="20" spans="1:9" ht="94.5">
       <c r="A20" s="140" t="s">
         <v>1004</v>
       </c>
@@ -30793,7 +30799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="63">
+    <row r="21" spans="1:9" ht="94.5">
       <c r="A21" s="140" t="s">
         <v>1005</v>
       </c>
@@ -30810,7 +30816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="63">
+    <row r="22" spans="1:9" ht="94.5">
       <c r="A22" s="140" t="s">
         <v>1006</v>
       </c>
@@ -30845,7 +30851,7 @@
       <c r="E28" s="228"/>
       <c r="F28" s="96"/>
     </row>
-    <row r="29" spans="1:9" ht="19.5">
+    <row r="29" spans="1:9" ht="37.5">
       <c r="A29" s="202" t="s">
         <v>12</v>
       </c>
@@ -30857,7 +30863,7 @@
       <c r="E29" s="231"/>
       <c r="F29" s="99"/>
     </row>
-    <row r="30" spans="1:9" ht="39">
+    <row r="30" spans="1:9" ht="56.25">
       <c r="A30" s="202" t="s">
         <v>13</v>
       </c>
@@ -30869,7 +30875,7 @@
       <c r="E30" s="231"/>
       <c r="F30" s="99"/>
     </row>
-    <row r="31" spans="1:9" ht="19.5">
+    <row r="31" spans="1:9" ht="18.75">
       <c r="A31" s="202" t="s">
         <v>14</v>
       </c>
@@ -30881,7 +30887,7 @@
       <c r="E31" s="213"/>
       <c r="F31" s="99"/>
     </row>
-    <row r="32" spans="1:9" ht="19.5">
+    <row r="32" spans="1:9" ht="18.75">
       <c r="A32" s="203" t="s">
         <v>506</v>
       </c>
@@ -30899,7 +30905,7 @@
       </c>
       <c r="F32" s="101"/>
     </row>
-    <row r="33" spans="1:9" ht="19.5">
+    <row r="33" spans="1:9" ht="18.75">
       <c r="A33" s="204">
         <f>COUNTIF(G36:G81,"Passed")</f>
         <v>13</v>
@@ -30953,7 +30959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="47.25">
+    <row r="36" spans="1:9" ht="63">
       <c r="A36" s="140" t="s">
         <v>981</v>
       </c>
@@ -30980,7 +30986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="47.25">
+    <row r="37" spans="1:9" ht="63">
       <c r="A37" s="140" t="s">
         <v>986</v>
       </c>
@@ -31007,7 +31013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="47.25">
+    <row r="38" spans="1:9" ht="63">
       <c r="A38" s="140" t="s">
         <v>987</v>
       </c>
@@ -31034,7 +31040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="47.25">
+    <row r="39" spans="1:9" ht="63">
       <c r="A39" s="140" t="s">
         <v>988</v>
       </c>
@@ -31061,7 +31067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="47.25">
+    <row r="40" spans="1:9" ht="63">
       <c r="A40" s="140" t="s">
         <v>989</v>
       </c>
@@ -31088,7 +31094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="63">
+    <row r="41" spans="1:9" ht="94.5">
       <c r="A41" s="140" t="s">
         <v>995</v>
       </c>
@@ -31106,7 +31112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="63">
+    <row r="42" spans="1:9" ht="94.5">
       <c r="A42" s="140" t="s">
         <v>996</v>
       </c>
@@ -31123,7 +31129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="63">
+    <row r="43" spans="1:9" ht="94.5">
       <c r="A43" s="140" t="s">
         <v>997</v>
       </c>
@@ -31140,7 +31146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="63">
+    <row r="44" spans="1:9" ht="94.5">
       <c r="A44" s="140" t="s">
         <v>998</v>
       </c>
@@ -31174,7 +31180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="63">
+    <row r="46" spans="1:9" ht="94.5">
       <c r="A46" s="140" t="s">
         <v>1004</v>
       </c>
@@ -31191,7 +31197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="63">
+    <row r="47" spans="1:9" ht="94.5">
       <c r="A47" s="140" t="s">
         <v>1005</v>
       </c>
@@ -31208,7 +31214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="63">
+    <row r="48" spans="1:9" ht="94.5">
       <c r="A48" s="140" t="s">
         <v>1006</v>
       </c>
@@ -31377,21 +31383,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="44.625" customWidth="1"/>
-    <col min="5" max="5" width="49.25" customWidth="1"/>
-    <col min="6" max="6" width="32.625" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -31421,55 +31427,55 @@
       <c r="I2" s="97"/>
       <c r="J2" s="97"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5">
+    <row r="3" spans="1:10" ht="37.5">
       <c r="A3" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="232" t="s">
         <v>615</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
       <c r="G3" s="99"/>
       <c r="H3" s="97"/>
       <c r="I3" s="97"/>
       <c r="J3" s="97"/>
     </row>
-    <row r="4" spans="1:10" ht="39">
+    <row r="4" spans="1:10" ht="56.25">
       <c r="A4" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
       <c r="G4" s="99"/>
       <c r="H4" s="97"/>
       <c r="I4" s="97"/>
       <c r="J4" s="97"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5">
+    <row r="5" spans="1:10" ht="18.75">
       <c r="A5" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="B5" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
       <c r="G5" s="99"/>
       <c r="H5" s="97"/>
       <c r="I5" s="97"/>
       <c r="J5" s="97"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5">
+    <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="203" t="s">
         <v>506</v>
       </c>
@@ -31482,16 +31488,16 @@
       <c r="D6" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="232" t="s">
+      <c r="E6" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="232"/>
+      <c r="F6" s="233"/>
       <c r="G6" s="101"/>
       <c r="H6" s="97"/>
       <c r="I6" s="97"/>
       <c r="J6" s="97"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5">
+    <row r="7" spans="1:10" ht="18.75">
       <c r="A7" s="204">
         <f>COUNTIF(H10:H56,"Passed")</f>
         <v>19</v>
@@ -31506,11 +31512,11 @@
       <c r="D7" s="206">
         <v>0</v>
       </c>
-      <c r="E7" s="233">
+      <c r="E7" s="234">
         <f xml:space="preserve"> A7 +B7</f>
         <v>20</v>
       </c>
-      <c r="F7" s="233"/>
+      <c r="F7" s="234"/>
       <c r="G7" s="105"/>
       <c r="H7" s="97"/>
       <c r="I7" s="97"/>
@@ -31528,7 +31534,7 @@
       <c r="I8" s="97"/>
       <c r="J8" s="97"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75">
+    <row r="9" spans="1:10" ht="31.5">
       <c r="A9" s="138" t="s">
         <v>0</v>
       </c>
@@ -31560,7 +31566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="94.5">
+    <row r="10" spans="1:10" ht="110.25">
       <c r="A10" s="140" t="s">
         <v>942</v>
       </c>
@@ -31592,7 +31598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="110.25">
+    <row r="11" spans="1:10" ht="157.5">
       <c r="A11" s="140" t="s">
         <v>958</v>
       </c>
@@ -31624,7 +31630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="78.75">
+    <row r="12" spans="1:10" ht="110.25">
       <c r="A12" s="140" t="s">
         <v>959</v>
       </c>
@@ -31656,7 +31662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="63">
+    <row r="13" spans="1:10" ht="110.25">
       <c r="A13" s="140" t="s">
         <v>964</v>
       </c>
@@ -31700,7 +31706,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" ht="47.25">
+    <row r="15" spans="1:10" ht="63">
       <c r="A15" s="140" t="s">
         <v>974</v>
       </c>
@@ -31732,7 +31738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="126">
+    <row r="16" spans="1:10" ht="157.5">
       <c r="A16" s="140" t="s">
         <v>975</v>
       </c>
@@ -31764,7 +31770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="63">
+    <row r="17" spans="1:10" ht="78.75">
       <c r="A17" s="140" t="s">
         <v>976</v>
       </c>
@@ -31796,7 +31802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25">
+    <row r="18" spans="1:10" ht="63">
       <c r="A18" s="140" t="s">
         <v>978</v>
       </c>
@@ -31828,7 +31834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="126">
+    <row r="19" spans="1:10" ht="157.5">
       <c r="A19" s="140" t="s">
         <v>941</v>
       </c>
@@ -31860,7 +31866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="63">
+    <row r="20" spans="1:10" ht="78.75">
       <c r="A20" s="140" t="s">
         <v>979</v>
       </c>
@@ -31918,55 +31924,55 @@
       <c r="I26" s="97"/>
       <c r="J26" s="97"/>
     </row>
-    <row r="27" spans="1:10" ht="19.5">
+    <row r="27" spans="1:10" ht="37.5">
       <c r="A27" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="234" t="s">
+      <c r="B27" s="232" t="s">
         <v>615</v>
       </c>
-      <c r="C27" s="234"/>
-      <c r="D27" s="234"/>
-      <c r="E27" s="234"/>
-      <c r="F27" s="234"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="232"/>
       <c r="G27" s="99"/>
       <c r="H27" s="97"/>
       <c r="I27" s="97"/>
       <c r="J27" s="97"/>
     </row>
-    <row r="28" spans="1:10" ht="39">
+    <row r="28" spans="1:10" ht="56.25">
       <c r="A28" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="234" t="s">
+      <c r="B28" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C28" s="234"/>
-      <c r="D28" s="234"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="234"/>
+      <c r="C28" s="232"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="232"/>
       <c r="G28" s="99"/>
       <c r="H28" s="97"/>
       <c r="I28" s="97"/>
       <c r="J28" s="97"/>
     </row>
-    <row r="29" spans="1:10" ht="19.5">
+    <row r="29" spans="1:10" ht="18.75">
       <c r="A29" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
+      <c r="B29" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="232"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="232"/>
       <c r="G29" s="99"/>
       <c r="H29" s="97"/>
       <c r="I29" s="97"/>
       <c r="J29" s="97"/>
     </row>
-    <row r="30" spans="1:10" ht="19.5">
+    <row r="30" spans="1:10" ht="18.75">
       <c r="A30" s="203" t="s">
         <v>506</v>
       </c>
@@ -31979,16 +31985,16 @@
       <c r="D30" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="232" t="s">
+      <c r="E30" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="232"/>
+      <c r="F30" s="233"/>
       <c r="G30" s="101"/>
       <c r="H30" s="97"/>
       <c r="I30" s="97"/>
       <c r="J30" s="97"/>
     </row>
-    <row r="31" spans="1:10" ht="19.5">
+    <row r="31" spans="1:10" ht="18.75">
       <c r="A31" s="204">
         <f>COUNTIF(H34:H80,"Passed")</f>
         <v>10</v>
@@ -32003,11 +32009,11 @@
       <c r="D31" s="206">
         <v>0</v>
       </c>
-      <c r="E31" s="233">
+      <c r="E31" s="234">
         <f xml:space="preserve"> A31 +B31</f>
         <v>10</v>
       </c>
-      <c r="F31" s="233"/>
+      <c r="F31" s="234"/>
       <c r="G31" s="105"/>
       <c r="H31" s="97"/>
       <c r="I31" s="97"/>
@@ -32025,7 +32031,7 @@
       <c r="I32" s="97"/>
       <c r="J32" s="97"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
+    <row r="33" spans="1:10" ht="31.5">
       <c r="A33" s="138" t="s">
         <v>0</v>
       </c>
@@ -32057,7 +32063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="94.5">
+    <row r="34" spans="1:10" ht="110.25">
       <c r="A34" s="140" t="s">
         <v>942</v>
       </c>
@@ -32089,7 +32095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="126">
+    <row r="35" spans="1:10" ht="173.25">
       <c r="A35" s="140" t="s">
         <v>958</v>
       </c>
@@ -32121,7 +32127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="78.75">
+    <row r="36" spans="1:10" ht="110.25">
       <c r="A36" s="140" t="s">
         <v>959</v>
       </c>
@@ -32153,7 +32159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="63">
+    <row r="37" spans="1:10" ht="110.25">
       <c r="A37" s="140" t="s">
         <v>964</v>
       </c>
@@ -32197,7 +32203,7 @@
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:10" ht="47.25">
+    <row r="39" spans="1:10" ht="63">
       <c r="A39" s="140" t="s">
         <v>974</v>
       </c>
@@ -32229,7 +32235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="126">
+    <row r="40" spans="1:10" ht="157.5">
       <c r="A40" s="140" t="s">
         <v>975</v>
       </c>
@@ -32261,7 +32267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="63">
+    <row r="41" spans="1:10" ht="78.75">
       <c r="A41" s="140" t="s">
         <v>976</v>
       </c>
@@ -32293,7 +32299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="47.25">
+    <row r="42" spans="1:10" ht="63">
       <c r="A42" s="140" t="s">
         <v>978</v>
       </c>
@@ -32325,7 +32331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="126">
+    <row r="43" spans="1:10" ht="157.5">
       <c r="A43" s="140" t="s">
         <v>941</v>
       </c>
@@ -32357,7 +32363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="63">
+    <row r="44" spans="1:10" ht="78.75">
       <c r="A44" s="140" t="s">
         <v>979</v>
       </c>
@@ -32391,11 +32397,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E7:F7"/>
@@ -32403,6 +32404,11 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B29:F29"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="H9">
     <cfRule type="containsText" dxfId="1109" priority="35" operator="containsText" text="Pass">
@@ -32562,20 +32568,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="97" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="97" customWidth="1"/>
-    <col min="3" max="3" width="24.375" style="97" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="97" customWidth="1"/>
-    <col min="5" max="5" width="45.25" style="97" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="97" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="97" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="97" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="97" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="97" customWidth="1"/>
     <col min="6" max="6" width="36" style="97" customWidth="1"/>
-    <col min="7" max="7" width="30.75" style="97" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="97" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="97" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="97" customWidth="1"/>
     <col min="9" max="9" width="12" style="97" customWidth="1"/>
     <col min="10" max="16384" width="9" style="97"/>
   </cols>
@@ -32606,16 +32612,16 @@
       <c r="I2" s="106"/>
       <c r="J2" s="106"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5">
+    <row r="3" spans="1:10" ht="37.5">
       <c r="A3" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="232" t="s">
         <v>613</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
       <c r="H3" s="106"/>
@@ -32626,35 +32632,35 @@
       <c r="A4" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
       <c r="F4" s="99"/>
       <c r="G4" s="99"/>
       <c r="H4" s="106"/>
       <c r="I4" s="106"/>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5">
+    <row r="5" spans="1:10" ht="18.75">
       <c r="A5" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
+      <c r="B5" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
       <c r="F5" s="99"/>
       <c r="G5" s="99"/>
       <c r="H5" s="106"/>
       <c r="I5" s="106"/>
       <c r="J5" s="106"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5">
+    <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="212" t="s">
         <v>506</v>
       </c>
@@ -32676,7 +32682,7 @@
       <c r="I6" s="106"/>
       <c r="J6" s="106"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5">
+    <row r="7" spans="1:10" ht="18.75">
       <c r="A7" s="208">
         <f>COUNTIF(H10:H47,"Passed")</f>
         <v>25</v>
@@ -32745,7 +32751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="63">
+    <row r="10" spans="1:10" ht="78.75">
       <c r="A10" s="68" t="s">
         <v>900</v>
       </c>
@@ -32777,7 +32783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="78.75">
+    <row r="11" spans="1:10" ht="110.25">
       <c r="A11" s="68" t="s">
         <v>901</v>
       </c>
@@ -32794,7 +32800,7 @@
         <v>273</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>468</v>
+        <v>1036</v>
       </c>
       <c r="G11" s="73" t="s">
         <v>903</v>
@@ -32853,7 +32859,7 @@
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
     </row>
-    <row r="14" spans="1:10" ht="47.25">
+    <row r="14" spans="1:10" ht="63">
       <c r="A14" s="68" t="s">
         <v>905</v>
       </c>
@@ -32885,7 +32891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="78.75">
+    <row r="15" spans="1:10" ht="110.25">
       <c r="A15" s="68" t="s">
         <v>906</v>
       </c>
@@ -32917,7 +32923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="47.25">
+    <row r="16" spans="1:10" ht="63">
       <c r="A16" s="68" t="s">
         <v>907</v>
       </c>
@@ -32949,7 +32955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="78.75">
+    <row r="17" spans="1:10" ht="110.25">
       <c r="A17" s="68" t="s">
         <v>908</v>
       </c>
@@ -32981,7 +32987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25">
+    <row r="18" spans="1:10" ht="63">
       <c r="A18" s="68" t="s">
         <v>909</v>
       </c>
@@ -33013,7 +33019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="78.75">
+    <row r="19" spans="1:10" ht="110.25">
       <c r="A19" s="68" t="s">
         <v>910</v>
       </c>
@@ -33045,7 +33051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.25">
+    <row r="20" spans="1:10" ht="63">
       <c r="A20" s="68" t="s">
         <v>911</v>
       </c>
@@ -33077,7 +33083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="78.75">
+    <row r="21" spans="1:10" ht="110.25">
       <c r="A21" s="68" t="s">
         <v>912</v>
       </c>
@@ -33121,7 +33127,7 @@
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
     </row>
-    <row r="23" spans="1:10" ht="173.25">
+    <row r="23" spans="1:10" ht="204.75">
       <c r="A23" s="68" t="s">
         <v>914</v>
       </c>
@@ -33153,7 +33159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="173.25">
+    <row r="24" spans="1:10" ht="204.75">
       <c r="A24" s="68" t="s">
         <v>915</v>
       </c>
@@ -33185,7 +33191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="126">
+    <row r="25" spans="1:10" ht="141.75">
       <c r="A25" s="68" t="s">
         <v>916</v>
       </c>
@@ -33217,7 +33223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="126">
+    <row r="26" spans="1:10" ht="141.75">
       <c r="A26" s="68" t="s">
         <v>917</v>
       </c>
@@ -33249,7 +33255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="141.75">
+    <row r="27" spans="1:10" ht="157.5">
       <c r="A27" s="68" t="s">
         <v>918</v>
       </c>
@@ -33281,7 +33287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="126">
+    <row r="28" spans="1:10" ht="157.5">
       <c r="A28" s="68" t="s">
         <v>919</v>
       </c>
@@ -33313,7 +33319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="126">
+    <row r="29" spans="1:10" ht="157.5">
       <c r="A29" s="68" t="s">
         <v>920</v>
       </c>
@@ -33359,7 +33365,7 @@
       </c>
       <c r="J30" s="77"/>
     </row>
-    <row r="31" spans="1:10" ht="126">
+    <row r="31" spans="1:10" ht="157.5">
       <c r="A31" s="68" t="s">
         <v>921</v>
       </c>
@@ -33391,7 +33397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="126">
+    <row r="32" spans="1:10" ht="157.5">
       <c r="A32" s="68" t="s">
         <v>922</v>
       </c>
@@ -33423,7 +33429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="126">
+    <row r="33" spans="1:10" ht="141.75">
       <c r="A33" s="68" t="s">
         <v>923</v>
       </c>
@@ -33455,7 +33461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="126">
+    <row r="34" spans="1:10" ht="141.75">
       <c r="A34" s="68" t="s">
         <v>924</v>
       </c>
@@ -33487,7 +33493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="141.75">
+    <row r="35" spans="1:10" ht="157.5">
       <c r="A35" s="68" t="s">
         <v>925</v>
       </c>
@@ -33519,7 +33525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="126">
+    <row r="36" spans="1:10" ht="157.5">
       <c r="A36" s="68" t="s">
         <v>926</v>
       </c>
@@ -33551,7 +33557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="126">
+    <row r="37" spans="1:10" ht="157.5">
       <c r="A37" s="68" t="s">
         <v>927</v>
       </c>
@@ -33595,7 +33601,7 @@
       <c r="I38" s="77"/>
       <c r="J38" s="77"/>
     </row>
-    <row r="39" spans="1:10" ht="47.25">
+    <row r="39" spans="1:10" ht="63">
       <c r="A39" s="68" t="s">
         <v>928</v>
       </c>
@@ -33627,7 +33633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="47.25">
+    <row r="40" spans="1:10" ht="63">
       <c r="A40" s="68" t="s">
         <v>929</v>
       </c>
@@ -33659,7 +33665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="47.25">
+    <row r="41" spans="1:10" ht="63">
       <c r="A41" s="68" t="s">
         <v>930</v>
       </c>
@@ -33691,7 +33697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="63">
+    <row r="42" spans="1:10" ht="78.75">
       <c r="A42" s="68" t="s">
         <v>931</v>
       </c>
@@ -33735,7 +33741,7 @@
       <c r="I43" s="77"/>
       <c r="J43" s="77"/>
     </row>
-    <row r="44" spans="1:10" ht="94.5">
+    <row r="44" spans="1:10" ht="110.25">
       <c r="A44" s="68" t="s">
         <v>932</v>
       </c>
@@ -33767,7 +33773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="94.5">
+    <row r="45" spans="1:10" ht="126">
       <c r="A45" s="68" t="s">
         <v>933</v>
       </c>
@@ -33799,7 +33805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="94.5">
+    <row r="46" spans="1:10" ht="110.25">
       <c r="A46" s="68" t="s">
         <v>934</v>
       </c>
@@ -33831,7 +33837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="94.5">
+    <row r="47" spans="1:10" ht="126">
       <c r="A47" s="68" t="s">
         <v>935</v>
       </c>
@@ -33901,55 +33907,55 @@
       <c r="I53" s="106"/>
       <c r="J53" s="106"/>
     </row>
-    <row r="54" spans="1:10" ht="19.5">
+    <row r="54" spans="1:10" ht="37.5">
       <c r="A54" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="234" t="s">
+      <c r="B54" s="232" t="s">
         <v>613</v>
       </c>
-      <c r="C54" s="234"/>
-      <c r="D54" s="234"/>
-      <c r="E54" s="234"/>
+      <c r="C54" s="232"/>
+      <c r="D54" s="232"/>
+      <c r="E54" s="232"/>
       <c r="F54" s="99"/>
       <c r="G54" s="99"/>
       <c r="H54" s="106"/>
       <c r="I54" s="106"/>
       <c r="J54" s="106"/>
     </row>
-    <row r="55" spans="1:10" ht="39">
+    <row r="55" spans="1:10" ht="56.25">
       <c r="A55" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="234" t="s">
+      <c r="B55" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C55" s="234"/>
-      <c r="D55" s="234"/>
-      <c r="E55" s="234"/>
+      <c r="C55" s="232"/>
+      <c r="D55" s="232"/>
+      <c r="E55" s="232"/>
       <c r="F55" s="99"/>
       <c r="G55" s="99"/>
       <c r="H55" s="106"/>
       <c r="I55" s="106"/>
       <c r="J55" s="106"/>
     </row>
-    <row r="56" spans="1:10" ht="19.5">
+    <row r="56" spans="1:10" ht="18.75">
       <c r="A56" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="234"/>
-      <c r="D56" s="234"/>
-      <c r="E56" s="234"/>
+      <c r="B56" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="232"/>
+      <c r="D56" s="232"/>
+      <c r="E56" s="232"/>
       <c r="F56" s="99"/>
       <c r="G56" s="99"/>
       <c r="H56" s="106"/>
       <c r="I56" s="106"/>
       <c r="J56" s="106"/>
     </row>
-    <row r="57" spans="1:10" ht="19.5">
+    <row r="57" spans="1:10" ht="18.75">
       <c r="A57" s="207" t="s">
         <v>506</v>
       </c>
@@ -33971,7 +33977,7 @@
       <c r="I57" s="106"/>
       <c r="J57" s="106"/>
     </row>
-    <row r="58" spans="1:10" ht="19.5">
+    <row r="58" spans="1:10" ht="18.75">
       <c r="A58" s="208">
         <f>COUNTIF(H61:H98,"Passed")</f>
         <v>33</v>
@@ -34040,7 +34046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="63">
+    <row r="61" spans="1:10" ht="78.75">
       <c r="A61" s="68" t="s">
         <v>900</v>
       </c>
@@ -34072,7 +34078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="94.5">
+    <row r="62" spans="1:10" ht="126">
       <c r="A62" s="68" t="s">
         <v>901</v>
       </c>
@@ -34104,7 +34110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="63">
+    <row r="63" spans="1:10" ht="78.75">
       <c r="A63" s="68" t="s">
         <v>902</v>
       </c>
@@ -34148,7 +34154,7 @@
       <c r="I64" s="77"/>
       <c r="J64" s="77"/>
     </row>
-    <row r="65" spans="1:10" ht="47.25">
+    <row r="65" spans="1:10" ht="63">
       <c r="A65" s="68" t="s">
         <v>905</v>
       </c>
@@ -34180,7 +34186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="94.5">
+    <row r="66" spans="1:10" ht="126">
       <c r="A66" s="68" t="s">
         <v>906</v>
       </c>
@@ -34212,7 +34218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="47.25">
+    <row r="67" spans="1:10" ht="63">
       <c r="A67" s="68" t="s">
         <v>907</v>
       </c>
@@ -34244,7 +34250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="94.5">
+    <row r="68" spans="1:10" ht="126">
       <c r="A68" s="68" t="s">
         <v>908</v>
       </c>
@@ -34276,7 +34282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="47.25">
+    <row r="69" spans="1:10" ht="63">
       <c r="A69" s="68" t="s">
         <v>909</v>
       </c>
@@ -34308,7 +34314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="94.5">
+    <row r="70" spans="1:10" ht="126">
       <c r="A70" s="68" t="s">
         <v>910</v>
       </c>
@@ -34340,7 +34346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="47.25">
+    <row r="71" spans="1:10" ht="63">
       <c r="A71" s="68" t="s">
         <v>911</v>
       </c>
@@ -34372,7 +34378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="94.5">
+    <row r="72" spans="1:10" ht="126">
       <c r="A72" s="68" t="s">
         <v>912</v>
       </c>
@@ -34416,7 +34422,7 @@
       <c r="I73" s="77"/>
       <c r="J73" s="77"/>
     </row>
-    <row r="74" spans="1:10" ht="173.25">
+    <row r="74" spans="1:10" ht="204.75">
       <c r="A74" s="68" t="s">
         <v>914</v>
       </c>
@@ -34448,7 +34454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="173.25">
+    <row r="75" spans="1:10" ht="204.75">
       <c r="A75" s="68" t="s">
         <v>915</v>
       </c>
@@ -34480,7 +34486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="126">
+    <row r="76" spans="1:10" ht="141.75">
       <c r="A76" s="68" t="s">
         <v>916</v>
       </c>
@@ -34512,7 +34518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="126">
+    <row r="77" spans="1:10" ht="141.75">
       <c r="A77" s="68" t="s">
         <v>917</v>
       </c>
@@ -34544,7 +34550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="141.75">
+    <row r="78" spans="1:10" ht="157.5">
       <c r="A78" s="68" t="s">
         <v>918</v>
       </c>
@@ -34576,7 +34582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="126">
+    <row r="79" spans="1:10" ht="157.5">
       <c r="A79" s="68" t="s">
         <v>919</v>
       </c>
@@ -34608,7 +34614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="126">
+    <row r="80" spans="1:10" ht="157.5">
       <c r="A80" s="68" t="s">
         <v>920</v>
       </c>
@@ -34652,7 +34658,7 @@
       <c r="I81" s="95"/>
       <c r="J81" s="77"/>
     </row>
-    <row r="82" spans="1:10" ht="126">
+    <row r="82" spans="1:10" ht="157.5">
       <c r="A82" s="68" t="s">
         <v>921</v>
       </c>
@@ -34684,7 +34690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="126">
+    <row r="83" spans="1:10" ht="157.5">
       <c r="A83" s="68" t="s">
         <v>922</v>
       </c>
@@ -34716,7 +34722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="126">
+    <row r="84" spans="1:10" ht="141.75">
       <c r="A84" s="68" t="s">
         <v>923</v>
       </c>
@@ -34748,7 +34754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="126">
+    <row r="85" spans="1:10" ht="141.75">
       <c r="A85" s="68" t="s">
         <v>924</v>
       </c>
@@ -34780,7 +34786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="141.75">
+    <row r="86" spans="1:10" ht="157.5">
       <c r="A86" s="68" t="s">
         <v>925</v>
       </c>
@@ -34812,7 +34818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="126">
+    <row r="87" spans="1:10" ht="157.5">
       <c r="A87" s="68" t="s">
         <v>926</v>
       </c>
@@ -34844,7 +34850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="126">
+    <row r="88" spans="1:10" ht="157.5">
       <c r="A88" s="68" t="s">
         <v>927</v>
       </c>
@@ -34888,7 +34894,7 @@
       <c r="I89" s="77"/>
       <c r="J89" s="77"/>
     </row>
-    <row r="90" spans="1:10" ht="47.25">
+    <row r="90" spans="1:10" ht="63">
       <c r="A90" s="68" t="s">
         <v>928</v>
       </c>
@@ -34920,7 +34926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="47.25">
+    <row r="91" spans="1:10" ht="63">
       <c r="A91" s="68" t="s">
         <v>929</v>
       </c>
@@ -34952,7 +34958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="47.25">
+    <row r="92" spans="1:10" ht="63">
       <c r="A92" s="68" t="s">
         <v>930</v>
       </c>
@@ -34984,7 +34990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="63">
+    <row r="93" spans="1:10" ht="78.75">
       <c r="A93" s="68" t="s">
         <v>931</v>
       </c>
@@ -35028,7 +35034,7 @@
       <c r="I94" s="77"/>
       <c r="J94" s="77"/>
     </row>
-    <row r="95" spans="1:10" ht="94.5">
+    <row r="95" spans="1:10" ht="110.25">
       <c r="A95" s="68" t="s">
         <v>932</v>
       </c>
@@ -35060,7 +35066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="126">
+    <row r="96" spans="1:10" ht="157.5">
       <c r="A96" s="68" t="s">
         <v>933</v>
       </c>
@@ -35092,7 +35098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="94.5">
+    <row r="97" spans="1:10" ht="110.25">
       <c r="A97" s="68" t="s">
         <v>934</v>
       </c>
@@ -35124,7 +35130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="126">
+    <row r="98" spans="1:10" ht="157.5">
       <c r="A98" s="68" t="s">
         <v>935</v>
       </c>
@@ -35728,22 +35734,22 @@
   </sheetPr>
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="106" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="110" customWidth="1"/>
-    <col min="3" max="3" width="36.375" style="106" customWidth="1"/>
-    <col min="4" max="4" width="33.5" style="106" customWidth="1"/>
-    <col min="5" max="5" width="27.875" style="106" customWidth="1"/>
-    <col min="6" max="6" width="35" style="106" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="106" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="106" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="106" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="106" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="106" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="110" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="106" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="106" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="106" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" style="106" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="106" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="106" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="106" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="106" customWidth="1"/>
     <col min="11" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
@@ -35767,16 +35773,16 @@
       <c r="F2" s="107"/>
       <c r="G2" s="108"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5">
+    <row r="3" spans="1:10" ht="18.75">
       <c r="A3" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="232" t="s">
         <v>508</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
     </row>
@@ -35784,29 +35790,29 @@
       <c r="A4" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
       <c r="F4" s="99"/>
       <c r="G4" s="99"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5">
+    <row r="5" spans="1:10" ht="18.75">
       <c r="A5" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
+      <c r="B5" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
       <c r="F5" s="99"/>
       <c r="G5" s="99"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5">
+    <row r="6" spans="1:10" ht="37.5">
       <c r="A6" s="207" t="s">
         <v>506</v>
       </c>
@@ -35825,7 +35831,7 @@
       <c r="G6" s="101"/>
       <c r="H6" s="101"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5">
+    <row r="7" spans="1:10" ht="18.75">
       <c r="A7" s="208">
         <f>COUNTIF(H10:H60,"Passed")</f>
         <v>40</v>
@@ -35847,7 +35853,7 @@
       <c r="G7" s="105"/>
       <c r="H7" s="105"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="31.5">
       <c r="A9" s="84" t="s">
         <v>0</v>
       </c>
@@ -35879,7 +35885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="47.25">
+    <row r="10" spans="1:10" ht="63">
       <c r="A10" s="68" t="s">
         <v>509</v>
       </c>
@@ -35911,7 +35917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="47.25">
+    <row r="11" spans="1:10" ht="63">
       <c r="A11" s="68" t="s">
         <v>510</v>
       </c>
@@ -35955,7 +35961,7 @@
       <c r="I12" s="95"/>
       <c r="J12" s="94"/>
     </row>
-    <row r="13" spans="1:10" ht="31.5">
+    <row r="13" spans="1:10" ht="47.25">
       <c r="A13" s="68" t="s">
         <v>511</v>
       </c>
@@ -35987,7 +35993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="31.5">
+    <row r="14" spans="1:10" ht="63">
       <c r="A14" s="68" t="s">
         <v>512</v>
       </c>
@@ -36019,7 +36025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="31.5">
+    <row r="15" spans="1:10" ht="47.25">
       <c r="A15" s="68" t="s">
         <v>513</v>
       </c>
@@ -36051,7 +36057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="63">
+    <row r="16" spans="1:10" ht="94.5">
       <c r="A16" s="68" t="s">
         <v>514</v>
       </c>
@@ -36083,7 +36089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="63">
+    <row r="17" spans="1:10" ht="94.5">
       <c r="A17" s="68" t="s">
         <v>516</v>
       </c>
@@ -36115,7 +36121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="63">
+    <row r="18" spans="1:10" ht="110.25">
       <c r="A18" s="68" t="s">
         <v>515</v>
       </c>
@@ -36147,7 +36153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="63">
+    <row r="19" spans="1:10" ht="110.25">
       <c r="A19" s="68" t="s">
         <v>517</v>
       </c>
@@ -36179,7 +36185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="63">
+    <row r="20" spans="1:10" ht="94.5">
       <c r="A20" s="68" t="s">
         <v>518</v>
       </c>
@@ -36211,7 +36217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="63">
+    <row r="21" spans="1:10" ht="78.75">
       <c r="A21" s="68" t="s">
         <v>519</v>
       </c>
@@ -36243,7 +36249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="63">
+    <row r="22" spans="1:10" ht="94.5">
       <c r="A22" s="68" t="s">
         <v>520</v>
       </c>
@@ -36275,7 +36281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="63">
+    <row r="23" spans="1:10" ht="94.5">
       <c r="A23" s="68" t="s">
         <v>521</v>
       </c>
@@ -36307,7 +36313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="110.25">
+    <row r="24" spans="1:10" ht="189">
       <c r="A24" s="68" t="s">
         <v>522</v>
       </c>
@@ -36339,7 +36345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="110.25">
+    <row r="25" spans="1:10" ht="189">
       <c r="A25" s="68" t="s">
         <v>523</v>
       </c>
@@ -36371,7 +36377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="31.5">
+    <row r="26" spans="1:10" ht="47.25">
       <c r="A26" s="68" t="s">
         <v>524</v>
       </c>
@@ -36415,7 +36421,7 @@
       <c r="I27" s="95"/>
       <c r="J27" s="94"/>
     </row>
-    <row r="28" spans="1:10" ht="63">
+    <row r="28" spans="1:10" ht="94.5">
       <c r="A28" s="68" t="s">
         <v>525</v>
       </c>
@@ -36447,7 +36453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="63">
+    <row r="29" spans="1:10" ht="94.5">
       <c r="A29" s="68" t="s">
         <v>526</v>
       </c>
@@ -36543,7 +36549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="78.75">
+    <row r="32" spans="1:10" ht="126">
       <c r="A32" s="68" t="s">
         <v>529</v>
       </c>
@@ -36575,7 +36581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="63">
+    <row r="33" spans="1:10" ht="110.25">
       <c r="A33" s="68" t="s">
         <v>530</v>
       </c>
@@ -36619,7 +36625,7 @@
       <c r="I34" s="95"/>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="1:10" ht="78.75">
+    <row r="35" spans="1:10" ht="126">
       <c r="A35" s="68" t="s">
         <v>531</v>
       </c>
@@ -36651,7 +36657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="78.75">
+    <row r="36" spans="1:10" ht="126">
       <c r="A36" s="68" t="s">
         <v>676</v>
       </c>
@@ -36683,7 +36689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="141.75">
+    <row r="37" spans="1:10" ht="252">
       <c r="A37" s="68" t="s">
         <v>677</v>
       </c>
@@ -36715,7 +36721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="141.75">
+    <row r="38" spans="1:10" ht="252">
       <c r="A38" s="68" t="s">
         <v>678</v>
       </c>
@@ -36747,7 +36753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="110.25">
+    <row r="39" spans="1:10" ht="189">
       <c r="A39" s="68" t="s">
         <v>679</v>
       </c>
@@ -36779,7 +36785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="141.75">
+    <row r="40" spans="1:10" ht="236.25">
       <c r="A40" s="68" t="s">
         <v>680</v>
       </c>
@@ -36811,7 +36817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="141.75">
+    <row r="41" spans="1:10" ht="236.25">
       <c r="A41" s="68" t="s">
         <v>681</v>
       </c>
@@ -36843,7 +36849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="141.75">
+    <row r="42" spans="1:10" ht="236.25">
       <c r="A42" s="68" t="s">
         <v>682</v>
       </c>
@@ -36875,7 +36881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="141.75">
+    <row r="43" spans="1:10" ht="236.25">
       <c r="A43" s="68" t="s">
         <v>683</v>
       </c>
@@ -36907,7 +36913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="141.75">
+    <row r="44" spans="1:10" ht="236.25">
       <c r="A44" s="68" t="s">
         <v>684</v>
       </c>
@@ -36951,7 +36957,7 @@
       <c r="I45" s="88"/>
       <c r="J45" s="88"/>
     </row>
-    <row r="46" spans="1:10" ht="63">
+    <row r="46" spans="1:10" ht="110.25">
       <c r="A46" s="68" t="s">
         <v>685</v>
       </c>
@@ -36983,7 +36989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="78.75">
+    <row r="47" spans="1:10" ht="141.75">
       <c r="A47" s="68" t="s">
         <v>686</v>
       </c>
@@ -37015,7 +37021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="141.75">
+    <row r="48" spans="1:10" ht="236.25">
       <c r="A48" s="68" t="s">
         <v>687</v>
       </c>
@@ -37047,7 +37053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="141.75">
+    <row r="49" spans="1:10" ht="220.5">
       <c r="A49" s="68" t="s">
         <v>688</v>
       </c>
@@ -37079,7 +37085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="157.5">
+    <row r="50" spans="1:10" ht="267.75">
       <c r="A50" s="68" t="s">
         <v>689</v>
       </c>
@@ -37111,7 +37117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="110.25">
+    <row r="51" spans="1:10" ht="189">
       <c r="A51" s="68" t="s">
         <v>690</v>
       </c>
@@ -37143,7 +37149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="157.5">
+    <row r="52" spans="1:10" ht="236.25">
       <c r="A52" s="68" t="s">
         <v>691</v>
       </c>
@@ -37175,7 +37181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="110.25">
+    <row r="53" spans="1:10" ht="204.75">
       <c r="A53" s="68" t="s">
         <v>692</v>
       </c>
@@ -37207,7 +37213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="110.25">
+    <row r="54" spans="1:10" ht="204.75">
       <c r="A54" s="68" t="s">
         <v>693</v>
       </c>
@@ -37239,7 +37245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="126">
+    <row r="55" spans="1:10" ht="220.5">
       <c r="A55" s="68" t="s">
         <v>694</v>
       </c>
@@ -37271,7 +37277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="47.25">
+    <row r="56" spans="1:10" ht="78.75">
       <c r="A56" s="68" t="s">
         <v>695</v>
       </c>
@@ -37303,7 +37309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="78.75">
+    <row r="57" spans="1:10" ht="141.75">
       <c r="A57" s="68" t="s">
         <v>696</v>
       </c>
@@ -37335,7 +37341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="110.25">
+    <row r="58" spans="1:10" ht="173.25">
       <c r="A58" s="68" t="s">
         <v>697</v>
       </c>
@@ -37367,7 +37373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="110.25">
+    <row r="59" spans="1:10" ht="173.25">
       <c r="A59" s="68" t="s">
         <v>698</v>
       </c>
@@ -37399,7 +37405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="110.25">
+    <row r="60" spans="1:10" ht="173.25">
       <c r="A60" s="68" t="s">
         <v>699</v>
       </c>
@@ -37451,16 +37457,16 @@
       <c r="F66" s="107"/>
       <c r="G66" s="108"/>
     </row>
-    <row r="67" spans="1:10" ht="19.5">
+    <row r="67" spans="1:10" ht="18.75">
       <c r="A67" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="234" t="s">
+      <c r="B67" s="232" t="s">
         <v>508</v>
       </c>
-      <c r="C67" s="234"/>
-      <c r="D67" s="234"/>
-      <c r="E67" s="234"/>
+      <c r="C67" s="232"/>
+      <c r="D67" s="232"/>
+      <c r="E67" s="232"/>
       <c r="F67" s="99"/>
       <c r="G67" s="99"/>
       <c r="H67" s="118"/>
@@ -37471,35 +37477,35 @@
       <c r="A68" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="234" t="s">
+      <c r="B68" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C68" s="234"/>
-      <c r="D68" s="234"/>
-      <c r="E68" s="234"/>
+      <c r="C68" s="232"/>
+      <c r="D68" s="232"/>
+      <c r="E68" s="232"/>
       <c r="F68" s="99"/>
       <c r="G68" s="99"/>
       <c r="H68" s="118"/>
       <c r="I68" s="118"/>
       <c r="J68" s="118"/>
     </row>
-    <row r="69" spans="1:10" ht="19.5">
+    <row r="69" spans="1:10" ht="18.75">
       <c r="A69" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="234"/>
-      <c r="D69" s="234"/>
-      <c r="E69" s="234"/>
+      <c r="B69" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="232"/>
+      <c r="D69" s="232"/>
+      <c r="E69" s="232"/>
       <c r="F69" s="99"/>
       <c r="G69" s="99"/>
       <c r="H69" s="118"/>
       <c r="I69" s="118"/>
       <c r="J69" s="118"/>
     </row>
-    <row r="70" spans="1:10" ht="19.5">
+    <row r="70" spans="1:10" ht="37.5">
       <c r="A70" s="207" t="s">
         <v>506</v>
       </c>
@@ -37520,7 +37526,7 @@
       <c r="I70" s="118"/>
       <c r="J70" s="118"/>
     </row>
-    <row r="71" spans="1:10" ht="19.5">
+    <row r="71" spans="1:10" ht="18.75">
       <c r="A71" s="208">
         <f>COUNTIF(H74:H124,"Passed")</f>
         <v>47</v>
@@ -37555,7 +37561,7 @@
       <c r="I72" s="118"/>
       <c r="J72" s="118"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" ht="31.5">
       <c r="A73" s="84" t="s">
         <v>0</v>
       </c>
@@ -37587,7 +37593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="47.25">
+    <row r="74" spans="1:10" ht="63">
       <c r="A74" s="68" t="s">
         <v>509</v>
       </c>
@@ -37619,7 +37625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="47.25">
+    <row r="75" spans="1:10" ht="63">
       <c r="A75" s="68" t="s">
         <v>510</v>
       </c>
@@ -37663,7 +37669,7 @@
       <c r="I76" s="95"/>
       <c r="J76" s="94"/>
     </row>
-    <row r="77" spans="1:10" ht="31.5">
+    <row r="77" spans="1:10" ht="47.25">
       <c r="A77" s="68" t="s">
         <v>511</v>
       </c>
@@ -37695,7 +37701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="31.5">
+    <row r="78" spans="1:10" ht="63">
       <c r="A78" s="68" t="s">
         <v>512</v>
       </c>
@@ -37727,7 +37733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="31.5">
+    <row r="79" spans="1:10" ht="47.25">
       <c r="A79" s="68" t="s">
         <v>513</v>
       </c>
@@ -37759,7 +37765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="63">
+    <row r="80" spans="1:10" ht="94.5">
       <c r="A80" s="68" t="s">
         <v>514</v>
       </c>
@@ -37791,7 +37797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="63">
+    <row r="81" spans="1:10" ht="94.5">
       <c r="A81" s="68" t="s">
         <v>516</v>
       </c>
@@ -37823,7 +37829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="63">
+    <row r="82" spans="1:10" ht="110.25">
       <c r="A82" s="68" t="s">
         <v>515</v>
       </c>
@@ -37855,7 +37861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="63">
+    <row r="83" spans="1:10" ht="110.25">
       <c r="A83" s="68" t="s">
         <v>517</v>
       </c>
@@ -37887,7 +37893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="63">
+    <row r="84" spans="1:10" ht="94.5">
       <c r="A84" s="68" t="s">
         <v>518</v>
       </c>
@@ -37919,7 +37925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="63">
+    <row r="85" spans="1:10" ht="94.5">
       <c r="A85" s="68" t="s">
         <v>519</v>
       </c>
@@ -37951,7 +37957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="63">
+    <row r="86" spans="1:10" ht="94.5">
       <c r="A86" s="68" t="s">
         <v>520</v>
       </c>
@@ -37983,7 +37989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="63">
+    <row r="87" spans="1:10" ht="94.5">
       <c r="A87" s="68" t="s">
         <v>521</v>
       </c>
@@ -38015,7 +38021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="110.25">
+    <row r="88" spans="1:10" ht="189">
       <c r="A88" s="68" t="s">
         <v>522</v>
       </c>
@@ -38047,7 +38053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="110.25">
+    <row r="89" spans="1:10" ht="189">
       <c r="A89" s="68" t="s">
         <v>523</v>
       </c>
@@ -38079,7 +38085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="31.5">
+    <row r="90" spans="1:10" ht="47.25">
       <c r="A90" s="68" t="s">
         <v>524</v>
       </c>
@@ -38123,7 +38129,7 @@
       <c r="I91" s="95"/>
       <c r="J91" s="94"/>
     </row>
-    <row r="92" spans="1:10" ht="63">
+    <row r="92" spans="1:10" ht="94.5">
       <c r="A92" s="68" t="s">
         <v>525</v>
       </c>
@@ -38155,7 +38161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="63">
+    <row r="93" spans="1:10" ht="94.5">
       <c r="A93" s="68" t="s">
         <v>526</v>
       </c>
@@ -38187,7 +38193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="94.5">
+    <row r="94" spans="1:10" ht="141.75">
       <c r="A94" s="68" t="s">
         <v>527</v>
       </c>
@@ -38219,7 +38225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="94.5">
+    <row r="95" spans="1:10" ht="141.75">
       <c r="A95" s="68" t="s">
         <v>528</v>
       </c>
@@ -38251,7 +38257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="78.75">
+    <row r="96" spans="1:10" ht="126">
       <c r="A96" s="68" t="s">
         <v>529</v>
       </c>
@@ -38283,7 +38289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="63">
+    <row r="97" spans="1:10" ht="110.25">
       <c r="A97" s="68" t="s">
         <v>530</v>
       </c>
@@ -38327,7 +38333,7 @@
       <c r="I98" s="95"/>
       <c r="J98" s="94"/>
     </row>
-    <row r="99" spans="1:10" ht="78.75">
+    <row r="99" spans="1:10" ht="126">
       <c r="A99" s="68" t="s">
         <v>531</v>
       </c>
@@ -38391,7 +38397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="141.75">
+    <row r="101" spans="1:10" ht="252">
       <c r="A101" s="68" t="s">
         <v>677</v>
       </c>
@@ -38423,7 +38429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="141.75">
+    <row r="102" spans="1:10" ht="252">
       <c r="A102" s="68" t="s">
         <v>678</v>
       </c>
@@ -38455,7 +38461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="110.25">
+    <row r="103" spans="1:10" ht="189">
       <c r="A103" s="68" t="s">
         <v>679</v>
       </c>
@@ -38487,7 +38493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="141.75">
+    <row r="104" spans="1:10" ht="236.25">
       <c r="A104" s="68" t="s">
         <v>680</v>
       </c>
@@ -38519,7 +38525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="141.75">
+    <row r="105" spans="1:10" ht="236.25">
       <c r="A105" s="68" t="s">
         <v>681</v>
       </c>
@@ -38551,7 +38557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="141.75">
+    <row r="106" spans="1:10" ht="236.25">
       <c r="A106" s="68" t="s">
         <v>682</v>
       </c>
@@ -38583,7 +38589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="141.75">
+    <row r="107" spans="1:10" ht="236.25">
       <c r="A107" s="68" t="s">
         <v>683</v>
       </c>
@@ -38615,7 +38621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="141.75">
+    <row r="108" spans="1:10" ht="236.25">
       <c r="A108" s="68" t="s">
         <v>684</v>
       </c>
@@ -38659,7 +38665,7 @@
       <c r="I109" s="88"/>
       <c r="J109" s="88"/>
     </row>
-    <row r="110" spans="1:10" ht="63">
+    <row r="110" spans="1:10" ht="110.25">
       <c r="A110" s="68" t="s">
         <v>685</v>
       </c>
@@ -38691,7 +38697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="78.75">
+    <row r="111" spans="1:10" ht="173.25">
       <c r="A111" s="68" t="s">
         <v>686</v>
       </c>
@@ -38723,7 +38729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="141.75">
+    <row r="112" spans="1:10" ht="236.25">
       <c r="A112" s="68" t="s">
         <v>687</v>
       </c>
@@ -38755,7 +38761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="141.75">
+    <row r="113" spans="1:10" ht="220.5">
       <c r="A113" s="68" t="s">
         <v>688</v>
       </c>
@@ -38787,7 +38793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="157.5">
+    <row r="114" spans="1:10" ht="267.75">
       <c r="A114" s="68" t="s">
         <v>689</v>
       </c>
@@ -38819,7 +38825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="110.25">
+    <row r="115" spans="1:10" ht="189">
       <c r="A115" s="68" t="s">
         <v>690</v>
       </c>
@@ -38851,7 +38857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="157.5">
+    <row r="116" spans="1:10" ht="236.25">
       <c r="A116" s="68" t="s">
         <v>691</v>
       </c>
@@ -38883,7 +38889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="110.25">
+    <row r="117" spans="1:10" ht="204.75">
       <c r="A117" s="68" t="s">
         <v>692</v>
       </c>
@@ -38915,7 +38921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="110.25">
+    <row r="118" spans="1:10" ht="204.75">
       <c r="A118" s="68" t="s">
         <v>693</v>
       </c>
@@ -38947,7 +38953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="157.5">
+    <row r="119" spans="1:10" ht="220.5">
       <c r="A119" s="68" t="s">
         <v>694</v>
       </c>
@@ -38979,7 +38985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="47.25">
+    <row r="120" spans="1:10" ht="78.75">
       <c r="A120" s="68" t="s">
         <v>695</v>
       </c>
@@ -39011,7 +39017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="78.75">
+    <row r="121" spans="1:10" ht="141.75">
       <c r="A121" s="68" t="s">
         <v>696</v>
       </c>
@@ -39043,7 +39049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="110.25">
+    <row r="122" spans="1:10" ht="173.25">
       <c r="A122" s="68" t="s">
         <v>697</v>
       </c>
@@ -39075,7 +39081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="110.25">
+    <row r="123" spans="1:10" ht="173.25">
       <c r="A123" s="68" t="s">
         <v>698</v>
       </c>
@@ -39107,7 +39113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="110.25">
+    <row r="124" spans="1:10" ht="173.25">
       <c r="A124" s="68" t="s">
         <v>699</v>
       </c>
@@ -39692,21 +39698,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="106" customWidth="1"/>
-    <col min="2" max="2" width="27.75" style="97" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="97" customWidth="1"/>
-    <col min="4" max="4" width="32.875" style="97" customWidth="1"/>
-    <col min="5" max="5" width="42.875" style="97" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="106" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="97" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="97" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="97" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="97" customWidth="1"/>
     <col min="6" max="7" width="34" style="97" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="97" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="97" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="97" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="97" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="97" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="97" customWidth="1"/>
     <col min="11" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
@@ -39730,55 +39736,55 @@
       <c r="F2" s="228"/>
       <c r="G2" s="96"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5">
+    <row r="3" spans="1:10" ht="37.5">
       <c r="A3" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="232" t="s">
         <v>534</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
       <c r="G3" s="99"/>
       <c r="H3" s="120"/>
       <c r="I3" s="120"/>
       <c r="J3" s="120"/>
     </row>
-    <row r="4" spans="1:10" ht="39">
+    <row r="4" spans="1:10" ht="56.25">
       <c r="A4" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
       <c r="G4" s="99"/>
       <c r="H4" s="120"/>
       <c r="I4" s="120"/>
       <c r="J4" s="120"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5">
+    <row r="5" spans="1:10" ht="18.75">
       <c r="A5" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="B5" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
       <c r="G5" s="99"/>
       <c r="H5" s="120"/>
       <c r="I5" s="120"/>
       <c r="J5" s="120"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5">
+    <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="203" t="s">
         <v>506</v>
       </c>
@@ -39791,16 +39797,16 @@
       <c r="D6" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="232" t="s">
+      <c r="E6" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="232"/>
+      <c r="F6" s="233"/>
       <c r="G6" s="101"/>
       <c r="H6" s="120"/>
       <c r="I6" s="120"/>
       <c r="J6" s="120"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5">
+    <row r="7" spans="1:10" ht="18.75">
       <c r="A7" s="204">
         <f>COUNTIF(H10:H52,"Passed")</f>
         <v>27</v>
@@ -39815,11 +39821,11 @@
       <c r="D7" s="206">
         <v>0</v>
       </c>
-      <c r="E7" s="233">
+      <c r="E7" s="234">
         <f xml:space="preserve"> A7 +B7</f>
         <v>37</v>
       </c>
-      <c r="F7" s="233"/>
+      <c r="F7" s="234"/>
       <c r="G7" s="105"/>
       <c r="H7" s="120"/>
       <c r="I7" s="120"/>
@@ -39901,7 +39907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="78.75">
+    <row r="11" spans="1:10" ht="110.25">
       <c r="A11" s="68" t="s">
         <v>536</v>
       </c>
@@ -39933,7 +39939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="94.5">
+    <row r="12" spans="1:10" ht="126">
       <c r="A12" s="68" t="s">
         <v>537</v>
       </c>
@@ -39965,7 +39971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="94.5">
+    <row r="13" spans="1:10" ht="126">
       <c r="A13" s="68" t="s">
         <v>538</v>
       </c>
@@ -40041,7 +40047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="78.75">
+    <row r="16" spans="1:10" ht="110.25">
       <c r="A16" s="68" t="s">
         <v>540</v>
       </c>
@@ -40073,7 +40079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="47.25">
+    <row r="17" spans="1:10" ht="63">
       <c r="A17" s="68" t="s">
         <v>541</v>
       </c>
@@ -40105,7 +40111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="78.75">
+    <row r="18" spans="1:10" ht="110.25">
       <c r="A18" s="68" t="s">
         <v>542</v>
       </c>
@@ -40149,7 +40155,7 @@
       <c r="I19" s="95"/>
       <c r="J19" s="94"/>
     </row>
-    <row r="20" spans="1:10" ht="47.25">
+    <row r="20" spans="1:10" ht="63">
       <c r="A20" s="68" t="s">
         <v>543</v>
       </c>
@@ -40181,7 +40187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="78.75">
+    <row r="21" spans="1:10" ht="110.25">
       <c r="A21" s="68" t="s">
         <v>544</v>
       </c>
@@ -40213,7 +40219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="47.25">
+    <row r="22" spans="1:10" ht="63">
       <c r="A22" s="68" t="s">
         <v>545</v>
       </c>
@@ -40245,7 +40251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="78.75">
+    <row r="23" spans="1:10" ht="110.25">
       <c r="A23" s="68" t="s">
         <v>546</v>
       </c>
@@ -40289,7 +40295,7 @@
       <c r="I24" s="95"/>
       <c r="J24" s="94"/>
     </row>
-    <row r="25" spans="1:10" ht="47.25">
+    <row r="25" spans="1:10" ht="63">
       <c r="A25" s="68" t="s">
         <v>547</v>
       </c>
@@ -40319,7 +40325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="47.25">
+    <row r="26" spans="1:10" ht="63">
       <c r="A26" s="68" t="s">
         <v>548</v>
       </c>
@@ -40349,7 +40355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="47.25">
+    <row r="27" spans="1:10" ht="63">
       <c r="A27" s="68" t="s">
         <v>549</v>
       </c>
@@ -40381,7 +40387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="78.75">
+    <row r="28" spans="1:10" ht="110.25">
       <c r="A28" s="68" t="s">
         <v>550</v>
       </c>
@@ -40425,7 +40431,7 @@
       <c r="I29" s="95"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="1:10" ht="47.25">
+    <row r="30" spans="1:10" ht="63">
       <c r="A30" s="68" t="s">
         <v>551</v>
       </c>
@@ -40457,7 +40463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="78.75">
+    <row r="31" spans="1:10" ht="94.5">
       <c r="A31" s="68" t="s">
         <v>552</v>
       </c>
@@ -40489,7 +40495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="47.25">
+    <row r="32" spans="1:10" ht="63">
       <c r="A32" s="68" t="s">
         <v>553</v>
       </c>
@@ -40521,7 +40527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="78.75">
+    <row r="33" spans="1:10" ht="94.5">
       <c r="A33" s="68" t="s">
         <v>554</v>
       </c>
@@ -40553,7 +40559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="78.75">
+    <row r="34" spans="1:10" ht="94.5">
       <c r="A34" s="68" t="s">
         <v>555</v>
       </c>
@@ -40585,7 +40591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="78.75">
+    <row r="35" spans="1:10" ht="94.5">
       <c r="A35" s="68" t="s">
         <v>556</v>
       </c>
@@ -40617,7 +40623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="47.25">
+    <row r="36" spans="1:10" ht="63">
       <c r="A36" s="68" t="s">
         <v>557</v>
       </c>
@@ -40649,7 +40655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="78.75">
+    <row r="37" spans="1:10" ht="94.5">
       <c r="A37" s="68" t="s">
         <v>558</v>
       </c>
@@ -40681,7 +40687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="47.25">
+    <row r="38" spans="1:10" ht="63">
       <c r="A38" s="68" t="s">
         <v>559</v>
       </c>
@@ -40713,7 +40719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="78.75">
+    <row r="39" spans="1:10" ht="94.5">
       <c r="A39" s="68" t="s">
         <v>560</v>
       </c>
@@ -40745,7 +40751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="47.25">
+    <row r="40" spans="1:10" ht="63">
       <c r="A40" s="68" t="s">
         <v>561</v>
       </c>
@@ -40777,7 +40783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="78.75">
+    <row r="41" spans="1:10" ht="94.5">
       <c r="A41" s="68" t="s">
         <v>562</v>
       </c>
@@ -40809,7 +40815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="47.25">
+    <row r="42" spans="1:10" ht="63">
       <c r="A42" s="68" t="s">
         <v>563</v>
       </c>
@@ -40841,7 +40847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="94.5">
+    <row r="43" spans="1:10" ht="141.75">
       <c r="A43" s="68" t="s">
         <v>564</v>
       </c>
@@ -40885,7 +40891,7 @@
       <c r="I44" s="77"/>
       <c r="J44" s="77"/>
     </row>
-    <row r="45" spans="1:10" ht="78.75">
+    <row r="45" spans="1:10" ht="94.5">
       <c r="A45" s="68" t="s">
         <v>565</v>
       </c>
@@ -40917,7 +40923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="78.75">
+    <row r="46" spans="1:10" ht="94.5">
       <c r="A46" s="68" t="s">
         <v>566</v>
       </c>
@@ -40949,7 +40955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="126">
+    <row r="47" spans="1:10" ht="189">
       <c r="A47" s="68" t="s">
         <v>567</v>
       </c>
@@ -40993,7 +40999,7 @@
       <c r="I48" s="95"/>
       <c r="J48" s="94"/>
     </row>
-    <row r="49" spans="1:10" ht="94.5">
+    <row r="49" spans="1:10" ht="110.25">
       <c r="A49" s="68" t="s">
         <v>568</v>
       </c>
@@ -41025,7 +41031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="94.5">
+    <row r="50" spans="1:10" ht="110.25">
       <c r="A50" s="68" t="s">
         <v>569</v>
       </c>
@@ -41057,7 +41063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="78.75">
+    <row r="51" spans="1:10" ht="94.5">
       <c r="A51" s="68" t="s">
         <v>570</v>
       </c>
@@ -41089,7 +41095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="126">
+    <row r="52" spans="1:10" ht="189">
       <c r="A52" s="68" t="s">
         <v>571</v>
       </c>
@@ -41147,55 +41153,55 @@
       <c r="I61" s="120"/>
       <c r="J61" s="120"/>
     </row>
-    <row r="62" spans="1:10" ht="19.5">
+    <row r="62" spans="1:10" ht="37.5">
       <c r="A62" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="234" t="s">
+      <c r="B62" s="232" t="s">
         <v>534</v>
       </c>
-      <c r="C62" s="234"/>
-      <c r="D62" s="234"/>
-      <c r="E62" s="234"/>
-      <c r="F62" s="234"/>
+      <c r="C62" s="232"/>
+      <c r="D62" s="232"/>
+      <c r="E62" s="232"/>
+      <c r="F62" s="232"/>
       <c r="G62" s="99"/>
       <c r="H62" s="120"/>
       <c r="I62" s="120"/>
       <c r="J62" s="120"/>
     </row>
-    <row r="63" spans="1:10" ht="39">
+    <row r="63" spans="1:10" ht="56.25">
       <c r="A63" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="234" t="s">
+      <c r="B63" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C63" s="234"/>
-      <c r="D63" s="234"/>
-      <c r="E63" s="234"/>
-      <c r="F63" s="234"/>
+      <c r="C63" s="232"/>
+      <c r="D63" s="232"/>
+      <c r="E63" s="232"/>
+      <c r="F63" s="232"/>
       <c r="G63" s="99"/>
       <c r="H63" s="120"/>
       <c r="I63" s="120"/>
       <c r="J63" s="120"/>
     </row>
-    <row r="64" spans="1:10" ht="19.5">
+    <row r="64" spans="1:10" ht="18.75">
       <c r="A64" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="234"/>
-      <c r="D64" s="234"/>
-      <c r="E64" s="234"/>
-      <c r="F64" s="234"/>
+      <c r="B64" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="232"/>
+      <c r="D64" s="232"/>
+      <c r="E64" s="232"/>
+      <c r="F64" s="232"/>
       <c r="G64" s="99"/>
       <c r="H64" s="120"/>
       <c r="I64" s="120"/>
       <c r="J64" s="120"/>
     </row>
-    <row r="65" spans="1:10" ht="19.5">
+    <row r="65" spans="1:10" ht="18.75">
       <c r="A65" s="203" t="s">
         <v>506</v>
       </c>
@@ -41208,16 +41214,16 @@
       <c r="D65" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="232" t="s">
+      <c r="E65" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="232"/>
+      <c r="F65" s="233"/>
       <c r="G65" s="101"/>
       <c r="H65" s="120"/>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
     </row>
-    <row r="66" spans="1:10" ht="19.5">
+    <row r="66" spans="1:10" ht="18.75">
       <c r="A66" s="204">
         <f>COUNTIF(H69:H111,"Passed")</f>
         <v>37</v>
@@ -41232,11 +41238,11 @@
       <c r="D66" s="206">
         <v>0</v>
       </c>
-      <c r="E66" s="233">
+      <c r="E66" s="234">
         <f>A66 + B66</f>
         <v>37</v>
       </c>
-      <c r="F66" s="233"/>
+      <c r="F66" s="234"/>
       <c r="G66" s="105"/>
       <c r="H66" s="120"/>
       <c r="I66" s="120"/>
@@ -41316,7 +41322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="78.75">
+    <row r="70" spans="1:10" ht="94.5">
       <c r="A70" s="68" t="s">
         <v>536</v>
       </c>
@@ -41348,7 +41354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="94.5">
+    <row r="71" spans="1:10" ht="126">
       <c r="A71" s="68" t="s">
         <v>537</v>
       </c>
@@ -41380,7 +41386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="94.5">
+    <row r="72" spans="1:10" ht="126">
       <c r="A72" s="68" t="s">
         <v>538</v>
       </c>
@@ -41456,7 +41462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="78.75">
+    <row r="75" spans="1:10" ht="110.25">
       <c r="A75" s="68" t="s">
         <v>540</v>
       </c>
@@ -41488,7 +41494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="47.25">
+    <row r="76" spans="1:10" ht="63">
       <c r="A76" s="68" t="s">
         <v>541</v>
       </c>
@@ -41520,7 +41526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="78.75">
+    <row r="77" spans="1:10" ht="110.25">
       <c r="A77" s="68" t="s">
         <v>542</v>
       </c>
@@ -41564,7 +41570,7 @@
       <c r="I78" s="95"/>
       <c r="J78" s="94"/>
     </row>
-    <row r="79" spans="1:10" ht="47.25">
+    <row r="79" spans="1:10" ht="63">
       <c r="A79" s="68" t="s">
         <v>543</v>
       </c>
@@ -41596,7 +41602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="78.75">
+    <row r="80" spans="1:10" ht="110.25">
       <c r="A80" s="68" t="s">
         <v>544</v>
       </c>
@@ -41628,7 +41634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="47.25">
+    <row r="81" spans="1:10" ht="63">
       <c r="A81" s="68" t="s">
         <v>545</v>
       </c>
@@ -41660,7 +41666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="78.75">
+    <row r="82" spans="1:10" ht="110.25">
       <c r="A82" s="68" t="s">
         <v>546</v>
       </c>
@@ -41704,7 +41710,7 @@
       <c r="I83" s="95"/>
       <c r="J83" s="94"/>
     </row>
-    <row r="84" spans="1:10" ht="47.25">
+    <row r="84" spans="1:10" ht="63">
       <c r="A84" s="68" t="s">
         <v>547</v>
       </c>
@@ -41734,7 +41740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="47.25">
+    <row r="85" spans="1:10" ht="63">
       <c r="A85" s="68" t="s">
         <v>548</v>
       </c>
@@ -41764,7 +41770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="47.25">
+    <row r="86" spans="1:10" ht="63">
       <c r="A86" s="68" t="s">
         <v>549</v>
       </c>
@@ -41796,7 +41802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="78.75">
+    <row r="87" spans="1:10" ht="110.25">
       <c r="A87" s="68" t="s">
         <v>550</v>
       </c>
@@ -41840,7 +41846,7 @@
       <c r="I88" s="95"/>
       <c r="J88" s="94"/>
     </row>
-    <row r="89" spans="1:10" ht="47.25">
+    <row r="89" spans="1:10" ht="63">
       <c r="A89" s="68" t="s">
         <v>551</v>
       </c>
@@ -41872,7 +41878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="78.75">
+    <row r="90" spans="1:10" ht="94.5">
       <c r="A90" s="68" t="s">
         <v>552</v>
       </c>
@@ -41904,7 +41910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="47.25">
+    <row r="91" spans="1:10" ht="63">
       <c r="A91" s="68" t="s">
         <v>553</v>
       </c>
@@ -41936,7 +41942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="47.25">
+    <row r="92" spans="1:10" ht="63">
       <c r="A92" s="68" t="s">
         <v>554</v>
       </c>
@@ -41968,7 +41974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="78.75">
+    <row r="93" spans="1:10" ht="94.5">
       <c r="A93" s="68" t="s">
         <v>555</v>
       </c>
@@ -42000,7 +42006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="47.25">
+    <row r="94" spans="1:10" ht="63">
       <c r="A94" s="68" t="s">
         <v>556</v>
       </c>
@@ -42032,7 +42038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="47.25">
+    <row r="95" spans="1:10" ht="63">
       <c r="A95" s="68" t="s">
         <v>557</v>
       </c>
@@ -42064,7 +42070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="78.75">
+    <row r="96" spans="1:10" ht="94.5">
       <c r="A96" s="68" t="s">
         <v>558</v>
       </c>
@@ -42096,7 +42102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="47.25">
+    <row r="97" spans="1:10" ht="63">
       <c r="A97" s="68" t="s">
         <v>559</v>
       </c>
@@ -42128,7 +42134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="78.75">
+    <row r="98" spans="1:10" ht="94.5">
       <c r="A98" s="68" t="s">
         <v>560</v>
       </c>
@@ -42160,7 +42166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="47.25">
+    <row r="99" spans="1:10" ht="63">
       <c r="A99" s="68" t="s">
         <v>561</v>
       </c>
@@ -42192,7 +42198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="78.75">
+    <row r="100" spans="1:10" ht="94.5">
       <c r="A100" s="68" t="s">
         <v>562</v>
       </c>
@@ -42224,7 +42230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="47.25">
+    <row r="101" spans="1:10" ht="63">
       <c r="A101" s="68" t="s">
         <v>563</v>
       </c>
@@ -42256,7 +42262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="94.5">
+    <row r="102" spans="1:10" ht="141.75">
       <c r="A102" s="68" t="s">
         <v>564</v>
       </c>
@@ -42300,7 +42306,7 @@
       <c r="I103" s="77"/>
       <c r="J103" s="77"/>
     </row>
-    <row r="104" spans="1:10" ht="78.75">
+    <row r="104" spans="1:10" ht="94.5">
       <c r="A104" s="68" t="s">
         <v>565</v>
       </c>
@@ -42332,7 +42338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="78.75">
+    <row r="105" spans="1:10" ht="94.5">
       <c r="A105" s="68" t="s">
         <v>566</v>
       </c>
@@ -42364,7 +42370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="126">
+    <row r="106" spans="1:10" ht="189">
       <c r="A106" s="68" t="s">
         <v>567</v>
       </c>
@@ -42408,7 +42414,7 @@
       <c r="I107" s="95"/>
       <c r="J107" s="94"/>
     </row>
-    <row r="108" spans="1:10" ht="94.5">
+    <row r="108" spans="1:10" ht="110.25">
       <c r="A108" s="68" t="s">
         <v>568</v>
       </c>
@@ -42440,7 +42446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="94.5">
+    <row r="109" spans="1:10" ht="110.25">
       <c r="A109" s="68" t="s">
         <v>569</v>
       </c>
@@ -42472,7 +42478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="78.75">
+    <row r="110" spans="1:10" ht="94.5">
       <c r="A110" s="68" t="s">
         <v>570</v>
       </c>
@@ -42504,7 +42510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="126">
+    <row r="111" spans="1:10" ht="189">
       <c r="A111" s="68" t="s">
         <v>571</v>
       </c>
@@ -42537,6 +42543,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A9:J13"/>
   <mergeCells count="12">
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="E66:F66"/>
@@ -43174,21 +43181,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="47.625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" customWidth="1"/>
     <col min="5" max="5" width="50" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
@@ -43217,55 +43224,55 @@
       <c r="I2" s="97"/>
       <c r="J2" s="97"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5">
+    <row r="3" spans="1:10" ht="37.5">
       <c r="A3" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="232" t="s">
         <v>614</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
       <c r="G3" s="99"/>
       <c r="H3" s="97"/>
       <c r="I3" s="97"/>
       <c r="J3" s="97"/>
     </row>
-    <row r="4" spans="1:10" ht="39">
+    <row r="4" spans="1:10" ht="56.25">
       <c r="A4" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
       <c r="G4" s="99"/>
       <c r="H4" s="97"/>
       <c r="I4" s="97"/>
       <c r="J4" s="97"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5">
+    <row r="5" spans="1:10" ht="18.75">
       <c r="A5" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="B5" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
       <c r="G5" s="99"/>
       <c r="H5" s="97"/>
       <c r="I5" s="97"/>
       <c r="J5" s="97"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5">
+    <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="203" t="s">
         <v>506</v>
       </c>
@@ -43287,7 +43294,7 @@
       <c r="I6" s="97"/>
       <c r="J6" s="97"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5">
+    <row r="7" spans="1:10" ht="18.75">
       <c r="A7" s="204">
         <f>COUNTIF(H10:H73,"Passed")</f>
         <v>52</v>
@@ -43356,7 +43363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="63">
+    <row r="10" spans="1:10" ht="94.5">
       <c r="A10" s="68" t="s">
         <v>821</v>
       </c>
@@ -43388,7 +43395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="78.75">
+    <row r="11" spans="1:10" ht="94.5">
       <c r="A11" s="68" t="s">
         <v>822</v>
       </c>
@@ -43420,7 +43427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="78.75">
+    <row r="12" spans="1:10" ht="94.5">
       <c r="A12" s="68" t="s">
         <v>823</v>
       </c>
@@ -43452,7 +43459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="78.75">
+    <row r="13" spans="1:10" ht="126">
       <c r="A13" s="68" t="s">
         <v>824</v>
       </c>
@@ -43484,7 +43491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="78.75">
+    <row r="14" spans="1:10" ht="126">
       <c r="A14" s="68" t="s">
         <v>825</v>
       </c>
@@ -43516,7 +43523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="78.75">
+    <row r="15" spans="1:10" ht="126">
       <c r="A15" s="68" t="s">
         <v>826</v>
       </c>
@@ -43548,7 +43555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="63">
+    <row r="16" spans="1:10" ht="78.75">
       <c r="A16" s="68" t="s">
         <v>827</v>
       </c>
@@ -43580,7 +43587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="63">
+    <row r="17" spans="1:10" ht="78.75">
       <c r="A17" s="68" t="s">
         <v>828</v>
       </c>
@@ -43644,7 +43651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="78.75">
+    <row r="19" spans="1:10" ht="110.25">
       <c r="A19" s="68" t="s">
         <v>830</v>
       </c>
@@ -43676,7 +43683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="78.75">
+    <row r="20" spans="1:10" ht="110.25">
       <c r="A20" s="68" t="s">
         <v>831</v>
       </c>
@@ -43708,7 +43715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="78.75">
+    <row r="21" spans="1:10" ht="110.25">
       <c r="A21" s="68" t="s">
         <v>834</v>
       </c>
@@ -43740,7 +43747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="78.75">
+    <row r="22" spans="1:10" ht="110.25">
       <c r="A22" s="68" t="s">
         <v>835</v>
       </c>
@@ -43772,7 +43779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="78.75">
+    <row r="23" spans="1:10" ht="110.25">
       <c r="A23" s="68" t="s">
         <v>836</v>
       </c>
@@ -43804,7 +43811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="78.75">
+    <row r="24" spans="1:10" ht="110.25">
       <c r="A24" s="68" t="s">
         <v>837</v>
       </c>
@@ -43848,7 +43855,7 @@
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="1:10" ht="51">
+    <row r="26" spans="1:10" ht="63.75">
       <c r="A26" s="56" t="s">
         <v>838</v>
       </c>
@@ -43944,7 +43951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="63.75">
+    <row r="29" spans="1:10" ht="76.5">
       <c r="A29" s="56" t="s">
         <v>841</v>
       </c>
@@ -43976,7 +43983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="63.75">
+    <row r="30" spans="1:10" ht="76.5">
       <c r="A30" s="56" t="s">
         <v>842</v>
       </c>
@@ -44008,7 +44015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="63.75">
+    <row r="31" spans="1:10" ht="76.5">
       <c r="A31" s="56" t="s">
         <v>843</v>
       </c>
@@ -44072,7 +44079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="38.25">
+    <row r="33" spans="1:10" ht="51">
       <c r="A33" s="56" t="s">
         <v>856</v>
       </c>
@@ -44104,7 +44111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="38.25">
+    <row r="34" spans="1:10" ht="51">
       <c r="A34" s="56" t="s">
         <v>857</v>
       </c>
@@ -44212,7 +44219,7 @@
       <c r="I37" s="28"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" ht="51">
+    <row r="38" spans="1:10" ht="63.75">
       <c r="A38" s="56" t="s">
         <v>860</v>
       </c>
@@ -44244,7 +44251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="38.25">
+    <row r="39" spans="1:10" ht="51">
       <c r="A39" s="56" t="s">
         <v>861</v>
       </c>
@@ -44276,7 +44283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="38.25">
+    <row r="40" spans="1:10" ht="51">
       <c r="A40" s="56" t="s">
         <v>862</v>
       </c>
@@ -44308,7 +44315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="76.5">
+    <row r="41" spans="1:10" ht="89.25">
       <c r="A41" s="56" t="s">
         <v>863</v>
       </c>
@@ -44340,7 +44347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="51">
+    <row r="42" spans="1:10" ht="63.75">
       <c r="A42" s="56" t="s">
         <v>869</v>
       </c>
@@ -44384,7 +44391,7 @@
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="1:10" s="29" customFormat="1" ht="63.75">
+    <row r="44" spans="1:10" s="29" customFormat="1" ht="89.25">
       <c r="A44" s="56" t="s">
         <v>870</v>
       </c>
@@ -44416,7 +44423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="29" customFormat="1" ht="102">
+    <row r="45" spans="1:10" s="29" customFormat="1" ht="114.75">
       <c r="A45" s="56" t="s">
         <v>871</v>
       </c>
@@ -44448,7 +44455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="76.5">
+    <row r="46" spans="1:10" ht="89.25">
       <c r="A46" s="56" t="s">
         <v>875</v>
       </c>
@@ -44480,7 +44487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="76.5">
+    <row r="47" spans="1:10" ht="89.25">
       <c r="A47" s="56" t="s">
         <v>876</v>
       </c>
@@ -44512,7 +44519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="76.5">
+    <row r="48" spans="1:10" ht="102">
       <c r="A48" s="56" t="s">
         <v>877</v>
       </c>
@@ -44544,7 +44551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="63.75">
+    <row r="49" spans="1:10" ht="89.25">
       <c r="A49" s="56" t="s">
         <v>878</v>
       </c>
@@ -44576,7 +44583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="63.75">
+    <row r="50" spans="1:10" ht="89.25">
       <c r="A50" s="56" t="s">
         <v>879</v>
       </c>
@@ -44620,7 +44627,7 @@
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="1:10" ht="51">
+    <row r="52" spans="1:10" ht="63.75">
       <c r="A52" s="56" t="s">
         <v>880</v>
       </c>
@@ -44652,7 +44659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="51">
+    <row r="53" spans="1:10" ht="63.75">
       <c r="A53" s="56" t="s">
         <v>881</v>
       </c>
@@ -44684,7 +44691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="51">
+    <row r="54" spans="1:10" ht="63.75">
       <c r="A54" s="56" t="s">
         <v>882</v>
       </c>
@@ -44716,7 +44723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="51">
+    <row r="55" spans="1:10" ht="63.75">
       <c r="A55" s="56" t="s">
         <v>883</v>
       </c>
@@ -44746,7 +44753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="51">
+    <row r="56" spans="1:10" ht="63.75">
       <c r="A56" s="56" t="s">
         <v>884</v>
       </c>
@@ -44790,7 +44797,7 @@
       <c r="I57" s="27"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="1:10" ht="76.5">
+    <row r="58" spans="1:10" ht="102">
       <c r="A58" s="56" t="s">
         <v>885</v>
       </c>
@@ -44822,7 +44829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="76.5">
+    <row r="59" spans="1:10" ht="102">
       <c r="A59" s="56" t="s">
         <v>886</v>
       </c>
@@ -44854,7 +44861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="76.5">
+    <row r="60" spans="1:10" ht="89.25">
       <c r="A60" s="56" t="s">
         <v>887</v>
       </c>
@@ -44886,7 +44893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="63.75">
+    <row r="61" spans="1:10" ht="76.5">
       <c r="A61" s="56" t="s">
         <v>888</v>
       </c>
@@ -44916,7 +44923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="76.5">
+    <row r="62" spans="1:10" ht="89.25">
       <c r="A62" s="56" t="s">
         <v>889</v>
       </c>
@@ -44958,7 +44965,7 @@
       <c r="I63" s="27"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="1:10" ht="89.25">
+    <row r="64" spans="1:10" ht="102">
       <c r="A64" s="56" t="s">
         <v>890</v>
       </c>
@@ -44990,7 +44997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="89.25">
+    <row r="65" spans="1:10" ht="102">
       <c r="A65" s="56" t="s">
         <v>891</v>
       </c>
@@ -45022,7 +45029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="89.25">
+    <row r="66" spans="1:10" ht="102">
       <c r="A66" s="56" t="s">
         <v>892</v>
       </c>
@@ -45054,7 +45061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="89.25">
+    <row r="67" spans="1:10" ht="102">
       <c r="A67" s="56" t="s">
         <v>893</v>
       </c>
@@ -45084,7 +45091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="89.25">
+    <row r="68" spans="1:10" ht="102">
       <c r="A68" s="56" t="s">
         <v>894</v>
       </c>
@@ -45222,7 +45229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="63.75">
+    <row r="73" spans="1:10" ht="76.5">
       <c r="A73" s="56" t="s">
         <v>898</v>
       </c>
@@ -45290,7 +45297,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15">
+    <row r="80" spans="1:10">
       <c r="A80" s="228" t="s">
         <v>846</v>
       </c>
@@ -45301,7 +45308,7 @@
       <c r="F80" s="228"/>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="1:10" ht="15">
+    <row r="81" spans="1:10">
       <c r="A81" s="228"/>
       <c r="B81" s="228"/>
       <c r="C81" s="228"/>
@@ -45310,46 +45317,46 @@
       <c r="F81" s="228"/>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="1:10" ht="19.5">
+    <row r="82" spans="1:10" ht="37.5">
       <c r="A82" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="234" t="s">
+      <c r="B82" s="232" t="s">
         <v>614</v>
       </c>
-      <c r="C82" s="234"/>
-      <c r="D82" s="234"/>
-      <c r="E82" s="234"/>
-      <c r="F82" s="234"/>
+      <c r="C82" s="232"/>
+      <c r="D82" s="232"/>
+      <c r="E82" s="232"/>
+      <c r="F82" s="232"/>
       <c r="G82" s="54"/>
     </row>
-    <row r="83" spans="1:10" ht="39">
+    <row r="83" spans="1:10" ht="56.25">
       <c r="A83" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="234" t="s">
+      <c r="B83" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C83" s="234"/>
-      <c r="D83" s="234"/>
-      <c r="E83" s="234"/>
-      <c r="F83" s="234"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="232"/>
+      <c r="E83" s="232"/>
+      <c r="F83" s="232"/>
       <c r="G83" s="54"/>
     </row>
-    <row r="84" spans="1:10" ht="19.5">
+    <row r="84" spans="1:10" ht="18.75">
       <c r="A84" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" s="234"/>
-      <c r="D84" s="234"/>
-      <c r="E84" s="234"/>
-      <c r="F84" s="234"/>
+      <c r="B84" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="232"/>
+      <c r="D84" s="232"/>
+      <c r="E84" s="232"/>
+      <c r="F84" s="232"/>
       <c r="G84" s="54"/>
     </row>
-    <row r="85" spans="1:10" ht="19.5">
+    <row r="85" spans="1:10" ht="18.75">
       <c r="A85" s="203" t="s">
         <v>506</v>
       </c>
@@ -45362,13 +45369,13 @@
       <c r="D85" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="E85" s="232" t="s">
+      <c r="E85" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="F85" s="232"/>
+      <c r="F85" s="233"/>
       <c r="G85" s="52"/>
     </row>
-    <row r="86" spans="1:10" ht="19.5">
+    <row r="86" spans="1:10" ht="18.75">
       <c r="A86" s="204">
         <f>COUNTIF(H89:H152,"Passed")</f>
         <v>57</v>
@@ -45383,17 +45390,17 @@
       <c r="D86" s="206">
         <v>0</v>
       </c>
-      <c r="E86" s="233">
+      <c r="E86" s="234">
         <f xml:space="preserve"> A86 +B86</f>
         <v>57</v>
       </c>
-      <c r="F86" s="233"/>
+      <c r="F86" s="234"/>
       <c r="G86" s="53"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="57"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" ht="25.5">
       <c r="A88" s="58" t="s">
         <v>0</v>
       </c>
@@ -45425,7 +45432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="51">
+    <row r="89" spans="1:10" ht="63.75">
       <c r="A89" s="56" t="s">
         <v>821</v>
       </c>
@@ -45521,7 +45528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="63.75">
+    <row r="92" spans="1:10" ht="76.5">
       <c r="A92" s="56" t="s">
         <v>824</v>
       </c>
@@ -45553,7 +45560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="63.75">
+    <row r="93" spans="1:10" ht="76.5">
       <c r="A93" s="56" t="s">
         <v>825</v>
       </c>
@@ -45585,7 +45592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="63.75">
+    <row r="94" spans="1:10" ht="76.5">
       <c r="A94" s="56" t="s">
         <v>826</v>
       </c>
@@ -45649,7 +45656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="38.25">
+    <row r="96" spans="1:10" ht="51">
       <c r="A96" s="56" t="s">
         <v>828</v>
       </c>
@@ -45681,7 +45688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="38.25">
+    <row r="97" spans="1:10" ht="51">
       <c r="A97" s="56" t="s">
         <v>829</v>
       </c>
@@ -45777,7 +45784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="63.75">
+    <row r="100" spans="1:10" ht="76.5">
       <c r="A100" s="56" t="s">
         <v>834</v>
       </c>
@@ -45809,7 +45816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="63.75">
+    <row r="101" spans="1:10" ht="76.5">
       <c r="A101" s="56" t="s">
         <v>835</v>
       </c>
@@ -45917,7 +45924,7 @@
       <c r="I104" s="20"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="1:10" ht="51">
+    <row r="105" spans="1:10" ht="63.75">
       <c r="A105" s="56" t="s">
         <v>838</v>
       </c>
@@ -46013,7 +46020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="63.75">
+    <row r="108" spans="1:10" ht="76.5">
       <c r="A108" s="56" t="s">
         <v>841</v>
       </c>
@@ -46045,7 +46052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="63.75">
+    <row r="109" spans="1:10" ht="76.5">
       <c r="A109" s="56" t="s">
         <v>842</v>
       </c>
@@ -46077,7 +46084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="63.75">
+    <row r="110" spans="1:10" ht="76.5">
       <c r="A110" s="56" t="s">
         <v>843</v>
       </c>
@@ -46141,7 +46148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="38.25">
+    <row r="112" spans="1:10" ht="51">
       <c r="A112" s="56" t="s">
         <v>856</v>
       </c>
@@ -46173,7 +46180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="38.25">
+    <row r="113" spans="1:10" ht="51">
       <c r="A113" s="56" t="s">
         <v>857</v>
       </c>
@@ -46281,7 +46288,7 @@
       <c r="I116" s="28"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" ht="51">
+    <row r="117" spans="1:10" ht="63.75">
       <c r="A117" s="56" t="s">
         <v>860</v>
       </c>
@@ -46313,7 +46320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="38.25">
+    <row r="118" spans="1:10" ht="51">
       <c r="A118" s="56" t="s">
         <v>861</v>
       </c>
@@ -46345,7 +46352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="38.25">
+    <row r="119" spans="1:10" ht="51">
       <c r="A119" s="56" t="s">
         <v>862</v>
       </c>
@@ -46377,7 +46384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="76.5">
+    <row r="120" spans="1:10" ht="89.25">
       <c r="A120" s="56" t="s">
         <v>863</v>
       </c>
@@ -46409,7 +46416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="51">
+    <row r="121" spans="1:10" ht="63.75">
       <c r="A121" s="56" t="s">
         <v>869</v>
       </c>
@@ -46453,7 +46460,7 @@
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="1:10" ht="63.75">
+    <row r="123" spans="1:10" ht="89.25">
       <c r="A123" s="56" t="s">
         <v>870</v>
       </c>
@@ -46485,7 +46492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="102">
+    <row r="124" spans="1:10" ht="114.75">
       <c r="A124" s="56" t="s">
         <v>871</v>
       </c>
@@ -46517,7 +46524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="76.5">
+    <row r="125" spans="1:10" ht="89.25">
       <c r="A125" s="56" t="s">
         <v>875</v>
       </c>
@@ -46549,7 +46556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="76.5">
+    <row r="126" spans="1:10" ht="89.25">
       <c r="A126" s="56" t="s">
         <v>876</v>
       </c>
@@ -46581,7 +46588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="76.5">
+    <row r="127" spans="1:10" ht="102">
       <c r="A127" s="56" t="s">
         <v>877</v>
       </c>
@@ -46613,7 +46620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="63.75">
+    <row r="128" spans="1:10" ht="89.25">
       <c r="A128" s="56" t="s">
         <v>878</v>
       </c>
@@ -46645,7 +46652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="63.75">
+    <row r="129" spans="1:10" ht="89.25">
       <c r="A129" s="56" t="s">
         <v>879</v>
       </c>
@@ -46689,7 +46696,7 @@
       <c r="I130" s="20"/>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="1:10" ht="51">
+    <row r="131" spans="1:10" ht="63.75">
       <c r="A131" s="56" t="s">
         <v>880</v>
       </c>
@@ -46721,7 +46728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="51">
+    <row r="132" spans="1:10" ht="63.75">
       <c r="A132" s="56" t="s">
         <v>881</v>
       </c>
@@ -46753,7 +46760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="51">
+    <row r="133" spans="1:10" ht="63.75">
       <c r="A133" s="56" t="s">
         <v>882</v>
       </c>
@@ -46785,7 +46792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="51">
+    <row r="134" spans="1:10" ht="63.75">
       <c r="A134" s="56" t="s">
         <v>883</v>
       </c>
@@ -46815,7 +46822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="51">
+    <row r="135" spans="1:10" ht="63.75">
       <c r="A135" s="56" t="s">
         <v>884</v>
       </c>
@@ -46859,7 +46866,7 @@
       <c r="I136" s="27"/>
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="1:10" ht="76.5">
+    <row r="137" spans="1:10" ht="102">
       <c r="A137" s="56" t="s">
         <v>885</v>
       </c>
@@ -46891,7 +46898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="76.5">
+    <row r="138" spans="1:10" ht="102">
       <c r="A138" s="56" t="s">
         <v>886</v>
       </c>
@@ -46923,7 +46930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="76.5">
+    <row r="139" spans="1:10" ht="89.25">
       <c r="A139" s="56" t="s">
         <v>887</v>
       </c>
@@ -46955,7 +46962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="63.75">
+    <row r="140" spans="1:10" ht="76.5">
       <c r="A140" s="56" t="s">
         <v>888</v>
       </c>
@@ -46985,7 +46992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="76.5">
+    <row r="141" spans="1:10" ht="89.25">
       <c r="A141" s="56" t="s">
         <v>889</v>
       </c>
@@ -47027,7 +47034,7 @@
       <c r="I142" s="27"/>
       <c r="J142" s="20"/>
     </row>
-    <row r="143" spans="1:10" ht="89.25">
+    <row r="143" spans="1:10" ht="102">
       <c r="A143" s="56" t="s">
         <v>890</v>
       </c>
@@ -47059,7 +47066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="89.25">
+    <row r="144" spans="1:10" ht="102">
       <c r="A144" s="56" t="s">
         <v>891</v>
       </c>
@@ -47091,7 +47098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="89.25">
+    <row r="145" spans="1:10" ht="102">
       <c r="A145" s="56" t="s">
         <v>892</v>
       </c>
@@ -47123,7 +47130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="89.25">
+    <row r="146" spans="1:10" ht="102">
       <c r="A146" s="56" t="s">
         <v>893</v>
       </c>
@@ -47153,7 +47160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="89.25">
+    <row r="147" spans="1:10" ht="102">
       <c r="A147" s="56" t="s">
         <v>894</v>
       </c>
@@ -47291,7 +47298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="63.75">
+    <row r="152" spans="1:10" ht="76.5">
       <c r="A152" s="56" t="s">
         <v>898</v>
       </c>
@@ -48268,22 +48275,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView topLeftCell="C36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="97" customWidth="1"/>
-    <col min="2" max="2" width="25.125" style="97" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="97" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="97" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="97" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="97" customWidth="1"/>
     <col min="4" max="4" width="47" style="97" customWidth="1"/>
-    <col min="5" max="5" width="50.25" style="97" customWidth="1"/>
-    <col min="6" max="6" width="46.375" style="97" customWidth="1"/>
-    <col min="7" max="7" width="45.125" style="97" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="97" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="97" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="97" customWidth="1"/>
+    <col min="5" max="5" width="50.28515625" style="97" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" style="97" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" style="97" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="97" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="97" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="97" customWidth="1"/>
     <col min="11" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
@@ -48454,7 +48461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="141.75">
+    <row r="11" spans="1:10" ht="157.5">
       <c r="A11" s="68" t="s">
         <v>536</v>
       </c>
@@ -48486,7 +48493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="141.75">
+    <row r="12" spans="1:10" ht="157.5">
       <c r="A12" s="68" t="s">
         <v>537</v>
       </c>
@@ -48518,7 +48525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="157.5">
+    <row r="13" spans="1:10" ht="189">
       <c r="A13" s="68" t="s">
         <v>538</v>
       </c>
@@ -48550,7 +48557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="141.75">
+    <row r="14" spans="1:10" ht="157.5">
       <c r="A14" s="68" t="s">
         <v>539</v>
       </c>
@@ -48582,7 +48589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="141.75">
+    <row r="15" spans="1:10" ht="189">
       <c r="A15" s="68" t="s">
         <v>540</v>
       </c>
@@ -48614,7 +48621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="141.75">
+    <row r="16" spans="1:10" ht="189">
       <c r="A16" s="68" t="s">
         <v>541</v>
       </c>
@@ -48742,7 +48749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="78.75">
+    <row r="20" spans="1:10" ht="94.5">
       <c r="A20" s="68" t="s">
         <v>545</v>
       </c>
@@ -48786,7 +48793,7 @@
       <c r="I21" s="125"/>
       <c r="J21" s="125"/>
     </row>
-    <row r="22" spans="1:10" ht="141.75">
+    <row r="22" spans="1:10" ht="157.5">
       <c r="A22" s="68" t="s">
         <v>546</v>
       </c>
@@ -48818,7 +48825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="141.75">
+    <row r="23" spans="1:10" ht="157.5">
       <c r="A23" s="68" t="s">
         <v>547</v>
       </c>
@@ -48850,7 +48857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="141.75">
+    <row r="24" spans="1:10" ht="157.5">
       <c r="A24" s="68" t="s">
         <v>548</v>
       </c>
@@ -48882,7 +48889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="141.75">
+    <row r="25" spans="1:10" ht="157.5">
       <c r="A25" s="68" t="s">
         <v>549</v>
       </c>
@@ -48914,7 +48921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="141.75">
+    <row r="26" spans="1:10" ht="157.5">
       <c r="A26" s="68" t="s">
         <v>550</v>
       </c>
@@ -48946,7 +48953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="141.75">
+    <row r="27" spans="1:10" ht="157.5">
       <c r="A27" s="68" t="s">
         <v>551</v>
       </c>
@@ -48978,7 +48985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="141.75">
+    <row r="28" spans="1:10" ht="189">
       <c r="A28" s="68" t="s">
         <v>552</v>
       </c>
@@ -49118,7 +49125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="110.25">
+    <row r="33" spans="1:10" ht="126">
       <c r="A33" s="68" t="s">
         <v>556</v>
       </c>
@@ -49258,7 +49265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="110.25">
+    <row r="38" spans="1:10" ht="126">
       <c r="A38" s="68" t="s">
         <v>560</v>
       </c>
@@ -49310,46 +49317,46 @@
       <c r="F44" s="228"/>
       <c r="G44" s="96"/>
     </row>
-    <row r="45" spans="1:10" ht="19.5">
+    <row r="45" spans="1:10" ht="18.75">
       <c r="A45" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="234" t="s">
+      <c r="B45" s="232" t="s">
         <v>811</v>
       </c>
-      <c r="C45" s="234"/>
-      <c r="D45" s="234"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="234"/>
+      <c r="C45" s="232"/>
+      <c r="D45" s="232"/>
+      <c r="E45" s="232"/>
+      <c r="F45" s="232"/>
       <c r="G45" s="99"/>
     </row>
-    <row r="46" spans="1:10" ht="19.5">
+    <row r="46" spans="1:10" ht="37.5">
       <c r="A46" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="234" t="s">
+      <c r="B46" s="232" t="s">
         <v>505</v>
       </c>
-      <c r="C46" s="234"/>
-      <c r="D46" s="234"/>
-      <c r="E46" s="234"/>
-      <c r="F46" s="234"/>
+      <c r="C46" s="232"/>
+      <c r="D46" s="232"/>
+      <c r="E46" s="232"/>
+      <c r="F46" s="232"/>
       <c r="G46" s="99"/>
     </row>
-    <row r="47" spans="1:10" ht="19.5">
+    <row r="47" spans="1:10" ht="18.75">
       <c r="A47" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="234" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="234"/>
-      <c r="D47" s="234"/>
-      <c r="E47" s="234"/>
-      <c r="F47" s="234"/>
+      <c r="B47" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="232"/>
+      <c r="D47" s="232"/>
+      <c r="E47" s="232"/>
+      <c r="F47" s="232"/>
       <c r="G47" s="99"/>
     </row>
-    <row r="48" spans="1:10" ht="19.5">
+    <row r="48" spans="1:10" ht="18.75">
       <c r="A48" s="203" t="s">
         <v>506</v>
       </c>
@@ -49362,13 +49369,13 @@
       <c r="D48" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="232" t="s">
+      <c r="E48" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="232"/>
+      <c r="F48" s="233"/>
       <c r="G48" s="101"/>
     </row>
-    <row r="49" spans="1:10" ht="19.5">
+    <row r="49" spans="1:10" ht="18.75">
       <c r="A49" s="204">
         <f>COUNTIF(H52:H98,"Passed")</f>
         <v>26</v>
@@ -49383,17 +49390,17 @@
       <c r="D49" s="206">
         <v>0</v>
       </c>
-      <c r="E49" s="233">
+      <c r="E49" s="234">
         <f xml:space="preserve"> A49 +B49</f>
         <v>26</v>
       </c>
-      <c r="F49" s="233"/>
+      <c r="F49" s="234"/>
       <c r="G49" s="105"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="106"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" ht="31.5">
       <c r="A51" s="84" t="s">
         <v>0</v>
       </c>
@@ -49457,7 +49464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="141.75">
+    <row r="53" spans="1:10" ht="157.5">
       <c r="A53" s="68" t="s">
         <v>536</v>
       </c>
@@ -49489,7 +49496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="141.75">
+    <row r="54" spans="1:10" ht="157.5">
       <c r="A54" s="68" t="s">
         <v>537</v>
       </c>
@@ -49521,7 +49528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="157.5">
+    <row r="55" spans="1:10" ht="189">
       <c r="A55" s="68" t="s">
         <v>538</v>
       </c>
@@ -49553,7 +49560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="141.75">
+    <row r="56" spans="1:10" ht="157.5">
       <c r="A56" s="68" t="s">
         <v>539</v>
       </c>
@@ -49585,7 +49592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="141.75">
+    <row r="57" spans="1:10" ht="189">
       <c r="A57" s="68" t="s">
         <v>540</v>
       </c>
@@ -49617,7 +49624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="141.75">
+    <row r="58" spans="1:10" ht="189">
       <c r="A58" s="68" t="s">
         <v>541</v>
       </c>
@@ -49789,7 +49796,7 @@
       <c r="I63" s="125"/>
       <c r="J63" s="125"/>
     </row>
-    <row r="64" spans="1:10" ht="141.75">
+    <row r="64" spans="1:10" ht="157.5">
       <c r="A64" s="68" t="s">
         <v>546</v>
       </c>
@@ -49821,7 +49828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="141.75">
+    <row r="65" spans="1:10" ht="157.5">
       <c r="A65" s="68" t="s">
         <v>547</v>
       </c>
@@ -49853,7 +49860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="141.75">
+    <row r="66" spans="1:10" ht="157.5">
       <c r="A66" s="68" t="s">
         <v>548</v>
       </c>
@@ -49885,7 +49892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="141.75">
+    <row r="67" spans="1:10" ht="157.5">
       <c r="A67" s="68" t="s">
         <v>549</v>
       </c>
@@ -49917,7 +49924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="141.75">
+    <row r="68" spans="1:10" ht="157.5">
       <c r="A68" s="68" t="s">
         <v>550</v>
       </c>
@@ -49949,7 +49956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="141.75">
+    <row r="69" spans="1:10" ht="157.5">
       <c r="A69" s="68" t="s">
         <v>551</v>
       </c>
@@ -49981,7 +49988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="141.75">
+    <row r="70" spans="1:10" ht="189">
       <c r="A70" s="68" t="s">
         <v>552</v>
       </c>
@@ -50013,7 +50020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="141.75">
+    <row r="71" spans="1:10" ht="157.5">
       <c r="A71" s="68" t="s">
         <v>553</v>
       </c>
@@ -50121,7 +50128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="110.25">
+    <row r="75" spans="1:10" ht="126">
       <c r="A75" s="68" t="s">
         <v>556</v>
       </c>
@@ -50261,7 +50268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="110.25">
+    <row r="80" spans="1:10" ht="126">
       <c r="A80" s="68" t="s">
         <v>560</v>
       </c>
